--- a/doc/bd schema/mesures.xlsx
+++ b/doc/bd schema/mesures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/projects/climato/doc/bd schema/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492D58DE-EDBA-CF41-A73C-72E07AAA29FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A2D3C4-30BF-CB48-B111-FD7AEF997E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27840" yWindow="500" windowWidth="23360" windowHeight="19400" xr2:uid="{E8C9D03E-FE34-074B-BD29-DFEA4CD8E37C}"/>
+    <workbookView xWindow="25720" yWindow="0" windowWidth="25480" windowHeight="21600" xr2:uid="{E8C9D03E-FE34-074B-BD29-DFEA4CD8E37C}"/>
   </bookViews>
   <sheets>
     <sheet name="All Mesures" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="sample meteoFR" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Mesures'!$C$1:$E$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Mesures'!$C$1:$E$109</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Mesures MeteoFR'!$B$2:$D$161</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -139,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{B6C7420A-F873-B74B-B89C-296349284C82}">
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{B6C7420A-F873-B74B-B89C-296349284C82}">
       <text>
         <r>
           <rPr>
@@ -153,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{EA6B7202-B33F-8645-A4F7-AC66A79FBC57}">
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{EA6B7202-B33F-8645-A4F7-AC66A79FBC57}">
       <text>
         <r>
           <rPr>
@@ -167,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{B676E595-296C-8F4B-A8CC-E50236BED56D}">
+    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{B676E595-296C-8F4B-A8CC-E50236BED56D}">
       <text>
         <r>
           <rPr>
@@ -181,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{5689D0F7-4D0B-DC45-8BFF-60351418D1C9}">
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{5689D0F7-4D0B-DC45-8BFF-60351418D1C9}">
       <text>
         <r>
           <rPr>
@@ -195,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{0CD8F1B4-5E13-4049-A6C5-5FDB815E5AAE}">
+    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{0CD8F1B4-5E13-4049-A6C5-5FDB815E5AAE}">
       <text>
         <r>
           <rPr>
@@ -209,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{3530F092-BF9A-B843-875B-580458632FC0}">
+    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{3530F092-BF9A-B843-875B-580458632FC0}">
       <text>
         <r>
           <rPr>
@@ -223,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E47" authorId="0" shapeId="0" xr:uid="{59BE30D2-041E-5047-B735-063429F8A26B}">
+    <comment ref="E51" authorId="0" shapeId="0" xr:uid="{59BE30D2-041E-5047-B735-063429F8A26B}">
       <text>
         <r>
           <rPr>
@@ -237,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{7F28B048-CF72-BF43-A183-E0F8C7DB20B0}">
+    <comment ref="E52" authorId="0" shapeId="0" xr:uid="{7F28B048-CF72-BF43-A183-E0F8C7DB20B0}">
       <text>
         <r>
           <rPr>
@@ -251,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E51" authorId="0" shapeId="0" xr:uid="{FAB901AB-1E89-954D-A7A7-7C7C67C2D4B7}">
+    <comment ref="E55" authorId="0" shapeId="0" xr:uid="{FAB901AB-1E89-954D-A7A7-7C7C67C2D4B7}">
       <text>
         <r>
           <rPr>
@@ -265,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E52" authorId="0" shapeId="0" xr:uid="{A7F6ECD8-EA68-1548-82BE-090990836B18}">
+    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{A7F6ECD8-EA68-1548-82BE-090990836B18}">
       <text>
         <r>
           <rPr>
@@ -279,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E55" authorId="0" shapeId="0" xr:uid="{E336ACCD-32D5-E24E-B9C2-B5E1F28281B7}">
+    <comment ref="E59" authorId="0" shapeId="0" xr:uid="{E336ACCD-32D5-E24E-B9C2-B5E1F28281B7}">
       <text>
         <r>
           <rPr>
@@ -451,7 +451,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="800">
   <si>
     <t>barometer</t>
   </si>
@@ -744,9 +744,6 @@
     <t>pressure_max_time</t>
   </si>
   <si>
-    <t>pressure_min</t>
-  </si>
-  <si>
     <t>rx</t>
   </si>
   <si>
@@ -996,15 +993,6 @@
     <t>PRES</t>
   </si>
   <si>
-    <t>pressure_minTime</t>
-  </si>
-  <si>
-    <t>a_pressure.min</t>
-  </si>
-  <si>
-    <t>a_pressure.minTime</t>
-  </si>
-  <si>
     <t>a_pressure.max</t>
   </si>
   <si>
@@ -2844,26 +2832,32 @@
     <t>API: K-&gt; C</t>
   </si>
   <si>
-    <t>API =&gt; /100</t>
-  </si>
-  <si>
     <t>tay_glo01</t>
   </si>
   <si>
-    <t>A prendre sur CSV..</t>
-  </si>
-  <si>
     <t>API : m/s -&gt; km/h</t>
   </si>
   <si>
     <t>Remarques</t>
+  </si>
+  <si>
+    <t>barometer_min_time</t>
+  </si>
+  <si>
+    <t>barometer_min</t>
+  </si>
+  <si>
+    <t>a_barometer.min</t>
+  </si>
+  <si>
+    <t>a_barometer.minTime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2987,16 +2981,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3012,6 +2998,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3075,17 +3067,19 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3406,8 +3400,8 @@
   <dimension ref="B1:L425"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3426,7 +3420,7 @@
   <sheetData>
     <row r="1" spans="2:12" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>80</v>
@@ -3441,21 +3435,21 @@
         <v>79</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="I1" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>795</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
@@ -3468,7 +3462,7 @@
         <v>50</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -3493,82 +3487,70 @@
         <v>51</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>797</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="5"/>
+      <c r="B4" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
+        <v>797</v>
+      </c>
       <c r="F4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+        <v>798</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="18"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="2:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="B5" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
-        <v>13</v>
+        <v>796</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>796</v>
-      </c>
+        <v>799</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+        <v>180</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -3576,34 +3558,36 @@
     </row>
     <row r="7" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="2:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5" t="s">
-        <v>83</v>
-      </c>
+      <c r="B8" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -3613,56 +3597,64 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E9" s="5" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>792</v>
+      </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="2:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
-        <v>124</v>
+      <c r="B10" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5" t="s">
-        <v>276</v>
+        <v>85</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="H10" s="19"/>
+        <v>201</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="2:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
-        <v>186</v>
+      <c r="B11" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
-        <v>277</v>
+        <v>86</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>281</v>
+        <v>202</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -3672,16 +3664,16 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="2:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
-        <v>186</v>
+      <c r="B12" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5" t="s">
-        <v>278</v>
+        <v>83</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>282</v>
+        <v>203</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -3691,16 +3683,16 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="2:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
-        <v>186</v>
+      <c r="B13" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5" t="s">
-        <v>279</v>
+        <v>84</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -3710,39 +3702,37 @@
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="2:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
-        <v>186</v>
+      <c r="B14" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+        <v>271</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" s="19"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="2:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="B15" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="B15" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="5" t="s">
-        <v>190</v>
+        <v>273</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>104</v>
+        <v>277</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -3752,20 +3742,16 @@
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="2:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="B16" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="B16" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="5" t="s">
-        <v>191</v>
+        <v>274</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>105</v>
+        <v>278</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -3775,20 +3761,16 @@
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="2:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="B17" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="5" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>35</v>
+        <v>279</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -3797,101 +3779,107 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B18" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="5"/>
+    <row r="18" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5" t="s">
+        <v>276</v>
+      </c>
       <c r="F18" s="5" t="s">
-        <v>36</v>
+        <v>280</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="9"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B19" s="12" t="s">
-        <v>274</v>
+    <row r="19" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="F19" s="5" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="9"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B20" s="12" t="s">
-        <v>274</v>
+    <row r="20" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="F20" s="5" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="9"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" ht="26" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>264</v>
+      </c>
       <c r="F21" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="9"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B22" s="11" t="s">
-        <v>187</v>
+      <c r="B22" s="12" t="s">
+        <v>270</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>187</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -3900,20 +3888,18 @@
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B23" s="11" t="s">
-        <v>188</v>
+      <c r="B23" s="12" t="s">
+        <v>270</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>188</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -3922,20 +3908,18 @@
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
-        <v>189</v>
+      <c r="B24" s="12" t="s">
+        <v>270</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>189</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -3945,17 +3929,17 @@
     </row>
     <row r="25" spans="2:12" ht="26" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -3964,18 +3948,20 @@
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B26" s="12" t="s">
-        <v>274</v>
+      <c r="B26" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="F26" s="5" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -3984,18 +3970,20 @@
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B27" s="12" t="s">
-        <v>274</v>
+      <c r="B27" s="11" t="s">
+        <v>184</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="F27" s="5" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -4004,18 +3992,20 @@
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B28" s="12" t="s">
-        <v>274</v>
+      <c r="B28" s="11" t="s">
+        <v>185</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="F28" s="5" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -4024,40 +4014,38 @@
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B29" s="11" t="s">
-        <v>192</v>
+      <c r="B29" s="12" t="s">
+        <v>270</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>192</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>175</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="9"/>
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B30" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="5" t="s">
-        <v>193</v>
-      </c>
+      <c r="B30" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
-        <v>209</v>
+        <v>22</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -4066,16 +4054,18 @@
       <c r="L30" s="4"/>
     </row>
     <row r="31" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B31" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="5" t="s">
-        <v>194</v>
-      </c>
+      <c r="B31" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -4084,16 +4074,18 @@
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B32" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="5" t="s">
-        <v>195</v>
-      </c>
+      <c r="B32" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
-        <v>210</v>
+        <v>24</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -4102,38 +4094,40 @@
       <c r="L32" s="4"/>
     </row>
     <row r="33" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B33" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="B33" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="E33" s="5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="G33" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="9"/>
       <c r="L33" s="4"/>
     </row>
     <row r="34" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B34" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>175</v>
-      </c>
+      <c r="B34" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="5" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -4143,15 +4137,15 @@
     </row>
     <row r="35" spans="2:12" ht="26" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -4161,15 +4155,15 @@
     </row>
     <row r="36" spans="2:12" ht="26" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -4178,36 +4172,38 @@
       <c r="L36" s="4"/>
     </row>
     <row r="37" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B37" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E37" s="5"/>
+      <c r="B37" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="F37" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>175</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="9"/>
       <c r="L37" s="4"/>
     </row>
     <row r="38" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B38" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
+      <c r="B38" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="F38" s="5" t="s">
-        <v>215</v>
+        <v>55</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -4217,13 +4213,15 @@
     </row>
     <row r="39" spans="2:12" ht="26" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>194</v>
+      </c>
       <c r="F39" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -4232,14 +4230,16 @@
       <c r="L39" s="4"/>
     </row>
     <row r="40" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B40" s="12" t="s">
-        <v>274</v>
+      <c r="B40" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="F40" s="5" t="s">
-        <v>58</v>
+        <v>210</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -4249,22 +4249,20 @@
     </row>
     <row r="41" spans="2:12" ht="26" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="E41" s="5"/>
       <c r="F41" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -4273,15 +4271,13 @@
     </row>
     <row r="42" spans="2:12" ht="26" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="5" t="s">
-        <v>200</v>
-      </c>
+      <c r="E42" s="5"/>
       <c r="F42" s="5" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -4291,15 +4287,13 @@
     </row>
     <row r="43" spans="2:12" ht="26" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="5" t="s">
-        <v>201</v>
-      </c>
+      <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -4308,20 +4302,14 @@
       <c r="L43" s="4"/>
     </row>
     <row r="44" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B44" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="B44" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
       <c r="F44" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -4331,35 +4319,39 @@
     </row>
     <row r="45" spans="2:12" ht="26" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="9"/>
       <c r="L45" s="4"/>
     </row>
     <row r="46" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B46" s="12" t="s">
-        <v>274</v>
+      <c r="B46" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="F46" s="5" t="s">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -4368,24 +4360,18 @@
       <c r="L46" s="4"/>
     </row>
     <row r="47" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B47" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="B47" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
       <c r="E47" s="5" t="s">
-        <v>126</v>
+        <v>197</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>175</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="9"/>
@@ -4393,19 +4379,19 @@
     </row>
     <row r="48" spans="2:12" ht="26" x14ac:dyDescent="0.3">
       <c r="B48" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>265</v>
+        <v>88</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -4414,18 +4400,20 @@
       <c r="L48" s="4"/>
     </row>
     <row r="49" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B49" s="12" t="s">
-        <v>274</v>
+      <c r="B49" s="11" t="s">
+        <v>228</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E49" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="F49" s="5" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -4435,17 +4423,13 @@
     </row>
     <row r="50" spans="2:12" ht="26" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -4455,43 +4439,43 @@
     </row>
     <row r="51" spans="2:12" ht="26" x14ac:dyDescent="0.3">
       <c r="B51" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H51" s="4"/>
+        <v>108</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="H51" s="21"/>
       <c r="I51" s="4"/>
       <c r="J51" s="9"/>
       <c r="L51" s="4"/>
     </row>
     <row r="52" spans="2:12" ht="26" x14ac:dyDescent="0.3">
       <c r="B52" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -4501,17 +4485,17 @@
     </row>
     <row r="53" spans="2:12" ht="26" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -4521,17 +4505,17 @@
     </row>
     <row r="54" spans="2:12" ht="26" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -4541,360 +4525,364 @@
     </row>
     <row r="55" spans="2:12" ht="26" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
-        <v>87</v>
+        <v>223</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G55" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="H55" s="23" t="s">
-        <v>156</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="9"/>
       <c r="L55" s="4"/>
     </row>
     <row r="56" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B56" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="B56" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="E56" s="5" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="G56" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="H56" s="23" t="s">
-        <v>157</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="9"/>
       <c r="L56" s="4"/>
     </row>
     <row r="57" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B57" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="5" t="s">
-        <v>222</v>
-      </c>
+      <c r="B57" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="5"/>
       <c r="F57" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>336</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="9"/>
       <c r="L57" s="4"/>
     </row>
     <row r="58" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B58" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="5" t="s">
-        <v>223</v>
-      </c>
+      <c r="B58" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58" s="5"/>
       <c r="F58" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="G58" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="H58" s="23" t="s">
-        <v>158</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="9"/>
       <c r="L58" s="4"/>
     </row>
     <row r="59" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B59" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="B59" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E59" s="5" t="s">
-        <v>224</v>
+        <v>87</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H59" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H59" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="I59" s="4"/>
       <c r="J59" s="9"/>
       <c r="L59" s="4"/>
     </row>
     <row r="60" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B60" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B60" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
       <c r="E60" s="5" t="s">
-        <v>90</v>
+        <v>217</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G60" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="H60" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>796</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="H60" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="I60" s="4"/>
       <c r="J60" s="9"/>
       <c r="L60" s="4"/>
     </row>
     <row r="61" spans="2:12" ht="26" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C61" s="4"/>
-      <c r="D61" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="D61" s="4"/>
       <c r="E61" s="5" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="G61" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="H61" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>796</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="H61" s="21"/>
+      <c r="I61" s="4"/>
       <c r="J61" s="9"/>
       <c r="L61" s="4"/>
     </row>
     <row r="62" spans="2:12" ht="26" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C62" s="4"/>
-      <c r="D62" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="D62" s="4"/>
       <c r="E62" s="5" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H62" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="H62" s="23" t="s">
+        <v>157</v>
+      </c>
       <c r="I62" s="4"/>
       <c r="J62" s="9"/>
       <c r="L62" s="4"/>
     </row>
     <row r="63" spans="2:12" ht="26" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C63" s="4"/>
-      <c r="D63" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="D63" s="4"/>
       <c r="E63" s="5" t="s">
-        <v>91</v>
+        <v>220</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="G63" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="H63" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>796</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="H63" s="21"/>
+      <c r="I63" s="4"/>
       <c r="J63" s="9"/>
       <c r="L63" s="4"/>
     </row>
     <row r="64" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B64" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C64" s="4"/>
+      <c r="B64" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="D64" s="4" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="H64" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>792</v>
+      </c>
       <c r="J64" s="9"/>
       <c r="L64" s="4"/>
     </row>
     <row r="65" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B65" s="11" t="s">
-        <v>274</v>
+      <c r="B65" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="5"/>
+      <c r="D65" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="F65" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
+        <v>175</v>
+      </c>
+      <c r="G65" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="H65" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>792</v>
+      </c>
       <c r="J65" s="9"/>
       <c r="L65" s="4"/>
     </row>
     <row r="66" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B66" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="B66" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G66" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="H66" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>797</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="H66" s="21"/>
+      <c r="I66" s="4"/>
       <c r="J66" s="9"/>
       <c r="L66" s="4"/>
     </row>
     <row r="67" spans="2:12" ht="26" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="D67" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="E67" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="24" t="s">
-        <v>799</v>
-      </c>
-      <c r="K67" s="4"/>
+        <v>177</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="H67" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="J67" s="9"/>
       <c r="L67" s="4"/>
     </row>
     <row r="68" spans="2:12" ht="26" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
+      <c r="D68" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="E68" s="5" t="s">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
+        <v>178</v>
+      </c>
+      <c r="G68" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H68" s="21"/>
       <c r="I68" s="4"/>
       <c r="J68" s="9"/>
-      <c r="K68" s="4"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="2:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="B69" s="8" t="s">
-        <v>186</v>
+    <row r="69" spans="2:12" ht="26" x14ac:dyDescent="0.3">
+      <c r="B69" s="11" t="s">
+        <v>270</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="E69" s="5"/>
       <c r="F69" s="5" t="s">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
+      <c r="J69" s="9"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="2:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="B70" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
+    <row r="70" spans="2:12" ht="26" x14ac:dyDescent="0.3">
+      <c r="B70" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E70" s="5" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>179</v>
+      </c>
       <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
+      <c r="J70" s="9"/>
       <c r="L70" s="4"/>
     </row>
     <row r="71" spans="2:12" ht="24" x14ac:dyDescent="0.3">
@@ -4913,11 +4901,11 @@
       <c r="F71" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G71" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="H71" s="20" t="s">
-        <v>798</v>
+      <c r="G71" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="H71" s="23" t="s">
+        <v>793</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
@@ -4926,15 +4914,15 @@
     </row>
     <row r="72" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -4945,15 +4933,15 @@
     </row>
     <row r="73" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -4978,11 +4966,11 @@
       <c r="F74" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G74" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="H74" s="22" t="s">
-        <v>134</v>
+      <c r="G74" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H74" s="20" t="s">
+        <v>133</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
@@ -4991,15 +4979,15 @@
     </row>
     <row r="75" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
@@ -5010,15 +4998,15 @@
     </row>
     <row r="76" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
@@ -5029,7 +5017,7 @@
     </row>
     <row r="77" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B77" s="11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -5046,7 +5034,7 @@
     </row>
     <row r="78" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B78" s="11" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>12</v>
@@ -5055,7 +5043,7 @@
         <v>12</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>69</v>
@@ -5069,15 +5057,15 @@
     </row>
     <row r="79" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -5088,15 +5076,15 @@
     </row>
     <row r="80" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -5107,7 +5095,7 @@
     </row>
     <row r="81" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B81" s="11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -5124,16 +5112,16 @@
     </row>
     <row r="82" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B82" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>71</v>
@@ -5147,15 +5135,15 @@
     </row>
     <row r="83" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>245</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>249</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -5166,15 +5154,15 @@
     </row>
     <row r="84" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F84" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -5185,15 +5173,15 @@
     </row>
     <row r="85" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F85" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -5204,15 +5192,15 @@
     </row>
     <row r="86" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F86" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
@@ -5223,7 +5211,7 @@
     </row>
     <row r="87" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B87" s="11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>40</v>
@@ -5232,10 +5220,10 @@
         <v>40</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -5246,7 +5234,7 @@
     </row>
     <row r="88" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B88" s="11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>41</v>
@@ -5255,10 +5243,10 @@
         <v>41</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -5269,7 +5257,7 @@
     </row>
     <row r="89" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B89" s="11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>42</v>
@@ -5278,10 +5266,10 @@
         <v>42</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -5292,7 +5280,7 @@
     </row>
     <row r="90" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B90" s="11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>43</v>
@@ -5301,10 +5289,10 @@
         <v>43</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
@@ -5315,7 +5303,7 @@
     </row>
     <row r="91" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B91" s="11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>25</v>
@@ -5324,16 +5312,16 @@
         <v>25</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G91" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="H91" s="23" t="s">
-        <v>513</v>
+        <v>116</v>
+      </c>
+      <c r="G91" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="H91" s="20" t="s">
+        <v>509</v>
       </c>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
@@ -5342,7 +5330,7 @@
     </row>
     <row r="92" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B92" s="11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>26</v>
@@ -5351,16 +5339,16 @@
         <v>26</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G92" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="H92" s="23" t="s">
-        <v>514</v>
+        <v>117</v>
+      </c>
+      <c r="G92" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="H92" s="20" t="s">
+        <v>510</v>
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
@@ -5369,7 +5357,7 @@
     </row>
     <row r="93" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B93" s="11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>27</v>
@@ -5378,16 +5366,16 @@
         <v>27</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G93" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="H93" s="23" t="s">
-        <v>515</v>
+        <v>118</v>
+      </c>
+      <c r="G93" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="H93" s="20" t="s">
+        <v>511</v>
       </c>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
@@ -5396,7 +5384,7 @@
     </row>
     <row r="94" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B94" s="11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>28</v>
@@ -5405,16 +5393,16 @@
         <v>28</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G94" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="H94" s="23" t="s">
-        <v>516</v>
+        <v>119</v>
+      </c>
+      <c r="G94" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="H94" s="20" t="s">
+        <v>512</v>
       </c>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
@@ -5423,7 +5411,7 @@
     </row>
     <row r="95" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B95" s="11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>48</v>
@@ -5444,12 +5432,12 @@
     </row>
     <row r="96" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B96" s="11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>72</v>
@@ -5463,7 +5451,7 @@
     </row>
     <row r="97" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B97" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>17</v>
@@ -5472,15 +5460,15 @@
         <v>17</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G97" s="20" t="s">
-        <v>443</v>
-      </c>
-      <c r="H97" s="21"/>
+      <c r="G97" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="H97" s="24"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
@@ -5488,15 +5476,15 @@
     </row>
     <row r="98" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -5507,15 +5495,15 @@
     </row>
     <row r="99" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -5564,15 +5552,15 @@
     </row>
     <row r="102" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
@@ -5583,15 +5571,15 @@
     </row>
     <row r="103" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
@@ -5602,7 +5590,7 @@
     </row>
     <row r="104" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B104" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>9</v>
@@ -5611,19 +5599,19 @@
         <v>9</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G104" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="H104" s="23" t="s">
-        <v>169</v>
+      <c r="G104" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="H104" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
@@ -5631,23 +5619,23 @@
     </row>
     <row r="105" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="G105" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="H105" s="23" t="s">
-        <v>169</v>
+        <v>269</v>
+      </c>
+      <c r="G105" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="H105" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
@@ -5656,7 +5644,7 @@
     </row>
     <row r="106" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>10</v>
@@ -5665,16 +5653,16 @@
         <v>10</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G106" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="H106" s="23" t="s">
-        <v>140</v>
+      <c r="G106" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="H106" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
@@ -5683,18 +5671,18 @@
     </row>
     <row r="107" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
@@ -5704,24 +5692,24 @@
     </row>
     <row r="108" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B108" s="11" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G108" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G108" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="H108" s="4"/>
+      <c r="H108" s="21"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
@@ -5729,24 +5717,24 @@
     </row>
     <row r="109" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B109" s="11" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H109" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="G109" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="H109" s="21"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
@@ -5754,20 +5742,20 @@
     </row>
     <row r="110" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="H110" s="4"/>
+        <v>281</v>
+      </c>
+      <c r="G110" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H110" s="21"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
@@ -5775,20 +5763,20 @@
     </row>
     <row r="111" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H111" s="4"/>
+        <v>282</v>
+      </c>
+      <c r="G111" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H111" s="21"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
@@ -5796,20 +5784,20 @@
     </row>
     <row r="112" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="4"/>
       <c r="E112" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H112" s="4"/>
+        <v>267</v>
+      </c>
+      <c r="G112" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="H112" s="21"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
@@ -5817,24 +5805,24 @@
     </row>
     <row r="113" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B113" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G113" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H113" s="23" t="s">
-        <v>135</v>
+        <v>270</v>
+      </c>
+      <c r="G113" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H113" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
@@ -5842,24 +5830,24 @@
     </row>
     <row r="114" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G114" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="H114" s="23" t="s">
-        <v>137</v>
+        <v>270</v>
+      </c>
+      <c r="G114" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H114" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
@@ -5867,21 +5855,21 @@
     </row>
     <row r="115" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G115" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="H115" s="23" t="s">
-        <v>138</v>
+        <v>270</v>
+      </c>
+      <c r="G115" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="H115" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
@@ -5890,18 +5878,18 @@
     </row>
     <row r="116" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
@@ -5911,24 +5899,24 @@
     </row>
     <row r="117" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B117" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G117" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="H117" s="23" t="s">
-        <v>136</v>
+        <v>270</v>
+      </c>
+      <c r="G117" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H117" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
@@ -9966,7 +9954,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -9974,7 +9962,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -9982,27 +9970,27 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="15"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -10010,7 +9998,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -10018,7 +10006,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="15" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -10026,7 +10014,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -10034,17 +10022,17 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="15"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="15" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -10052,7 +10040,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -10060,7 +10048,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -10068,7 +10056,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="15" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -10076,17 +10064,17 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="15" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="15"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="15" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -10094,7 +10082,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="15" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -10102,17 +10090,17 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="15"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="15" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -10120,17 +10108,17 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="15"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -10138,7 +10126,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="15" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -10146,7 +10134,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="15" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -10154,7 +10142,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="15" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -10162,7 +10150,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="15" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -10170,7 +10158,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="15" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -10178,7 +10166,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="15" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -10186,7 +10174,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="15" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -10194,7 +10182,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="15" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -10202,7 +10190,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="15" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -10210,7 +10198,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="15" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -10218,7 +10206,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="15" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -10226,47 +10214,47 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="15" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="15" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="15"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="15" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="15"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="15" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="15"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="15" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -10274,7 +10262,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="15" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -10282,7 +10270,7 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="15" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
@@ -10290,7 +10278,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="15" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
@@ -10298,7 +10286,7 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="15" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -10306,7 +10294,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="15" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
@@ -10314,7 +10302,7 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="15" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -10322,7 +10310,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="15" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
@@ -10330,7 +10318,7 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="15" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
@@ -10338,7 +10326,7 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="15" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
@@ -10346,7 +10334,7 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="15" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
@@ -10354,7 +10342,7 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="15" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
@@ -10362,17 +10350,17 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="15" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="15"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="15" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
@@ -10380,7 +10368,7 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="15" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
@@ -10388,27 +10376,27 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="15" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="15"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="15" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="15"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="15" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
@@ -10416,43 +10404,43 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="15" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="15" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E56" s="15"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="15" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E57" s="15"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="15" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
@@ -10460,7 +10448,7 @@
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="15" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
@@ -10468,7 +10456,7 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="15" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
@@ -10476,7 +10464,7 @@
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="15" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
@@ -10484,7 +10472,7 @@
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="15" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
@@ -10492,7 +10480,7 @@
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="15" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
@@ -10500,7 +10488,7 @@
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="15" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
@@ -10508,7 +10496,7 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="15" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
@@ -10516,7 +10504,7 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="15" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
@@ -10524,7 +10512,7 @@
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="15" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
@@ -10532,7 +10520,7 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="15" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
@@ -10540,7 +10528,7 @@
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="15" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
@@ -10548,7 +10536,7 @@
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="15" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
@@ -10556,7 +10544,7 @@
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="15" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
@@ -10564,43 +10552,43 @@
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="15" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E72" s="15"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="15" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E73" s="15"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="15" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E74" s="15"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="15" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
@@ -10608,7 +10596,7 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="15" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
@@ -10616,7 +10604,7 @@
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="15" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
@@ -10624,19 +10612,19 @@
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="15" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E78" s="15"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="15" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C79" s="16"/>
       <c r="D79" s="16"/>
@@ -10644,7 +10632,7 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="15" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
@@ -10652,7 +10640,7 @@
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="15" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C81" s="16"/>
       <c r="D81" s="16"/>
@@ -10660,7 +10648,7 @@
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="15" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
@@ -10668,7 +10656,7 @@
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="15" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
@@ -10676,7 +10664,7 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="15" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
@@ -10684,7 +10672,7 @@
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="15" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C85" s="16"/>
       <c r="D85" s="16"/>
@@ -10692,7 +10680,7 @@
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="15" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
@@ -10700,7 +10688,7 @@
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="15" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
@@ -10708,7 +10696,7 @@
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="15" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C88" s="16"/>
       <c r="D88" s="16"/>
@@ -10716,17 +10704,17 @@
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="15" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D89" s="16"/>
       <c r="E89" s="15"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="15" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
@@ -10734,7 +10722,7 @@
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="15" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
@@ -10742,7 +10730,7 @@
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="15" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
@@ -10750,17 +10738,17 @@
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="15" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D93" s="16"/>
       <c r="E93" s="15"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" s="15" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
@@ -10768,7 +10756,7 @@
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" s="15" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
@@ -10776,7 +10764,7 @@
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" s="15" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C96" s="16"/>
       <c r="D96" s="16"/>
@@ -10784,7 +10772,7 @@
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" s="15" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C97" s="16"/>
       <c r="D97" s="16"/>
@@ -10792,17 +10780,17 @@
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="15" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D98" s="16"/>
       <c r="E98" s="15"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="15" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C99" s="16"/>
       <c r="D99" s="16"/>
@@ -10810,7 +10798,7 @@
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" s="15" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
@@ -10818,7 +10806,7 @@
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" s="15" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
@@ -10826,7 +10814,7 @@
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" s="15" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
@@ -10834,7 +10822,7 @@
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="15" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
@@ -10842,7 +10830,7 @@
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" s="15" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
@@ -10850,7 +10838,7 @@
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" s="15" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C105" s="16"/>
       <c r="D105" s="16"/>
@@ -10858,7 +10846,7 @@
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" s="15" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C106" s="16"/>
       <c r="D106" s="16"/>
@@ -10866,7 +10854,7 @@
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="15" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C107" s="16"/>
       <c r="D107" s="16"/>
@@ -10874,7 +10862,7 @@
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="15" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C108" s="16"/>
       <c r="D108" s="16"/>
@@ -10882,7 +10870,7 @@
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" s="15" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C109" s="16"/>
       <c r="D109" s="16"/>
@@ -10890,7 +10878,7 @@
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" s="15" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
@@ -10898,7 +10886,7 @@
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="15" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C111" s="16"/>
       <c r="D111" s="16"/>
@@ -10906,7 +10894,7 @@
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" s="15" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
@@ -10914,7 +10902,7 @@
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" s="15" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
@@ -10922,7 +10910,7 @@
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" s="15" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
@@ -10930,7 +10918,7 @@
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" s="15" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
@@ -10938,7 +10926,7 @@
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" s="15" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
@@ -10946,7 +10934,7 @@
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" s="15" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
@@ -10954,7 +10942,7 @@
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" s="15" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
@@ -10962,7 +10950,7 @@
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" s="15" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C119" s="16"/>
       <c r="D119" s="16"/>
@@ -10970,7 +10958,7 @@
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" s="15" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C120" s="16"/>
       <c r="D120" s="16"/>
@@ -10978,17 +10966,17 @@
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" s="15" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="D121" s="16"/>
       <c r="E121" s="15"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" s="15" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C122" s="16"/>
       <c r="D122" s="16"/>
@@ -10996,17 +10984,17 @@
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" s="15" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D123" s="16"/>
       <c r="E123" s="15"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" s="15" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C124" s="16"/>
       <c r="D124" s="16"/>
@@ -11014,7 +11002,7 @@
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" s="15" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C125" s="16"/>
       <c r="D125" s="16"/>
@@ -11022,7 +11010,7 @@
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" s="15" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C126" s="16"/>
       <c r="D126" s="16"/>
@@ -11030,27 +11018,27 @@
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" s="15" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="D127" s="16"/>
       <c r="E127" s="15"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" s="15" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="D128" s="16"/>
       <c r="E128" s="15"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" s="15" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C129" s="16"/>
       <c r="D129" s="16"/>
@@ -11058,7 +11046,7 @@
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130" s="15" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C130" s="16"/>
       <c r="D130" s="16"/>
@@ -11066,7 +11054,7 @@
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131" s="15" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C131" s="16"/>
       <c r="D131" s="16"/>
@@ -11074,7 +11062,7 @@
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" s="15" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="C132" s="16"/>
       <c r="D132" s="16"/>
@@ -11082,7 +11070,7 @@
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133" s="15" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C133" s="16"/>
       <c r="D133" s="16"/>
@@ -11090,7 +11078,7 @@
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B134" s="15" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C134" s="16"/>
       <c r="D134" s="16"/>
@@ -11098,7 +11086,7 @@
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B135" s="15" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C135" s="16"/>
       <c r="D135" s="16"/>
@@ -11106,17 +11094,17 @@
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B136" s="15" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="D136" s="16"/>
       <c r="E136" s="15"/>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B137" s="15" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C137" s="16"/>
       <c r="D137" s="16"/>
@@ -11124,7 +11112,7 @@
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B138" s="15" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C138" s="16"/>
       <c r="D138" s="16"/>
@@ -11132,7 +11120,7 @@
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B139" s="15" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C139" s="16"/>
       <c r="D139" s="16"/>
@@ -11140,7 +11128,7 @@
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B140" s="15" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C140" s="16"/>
       <c r="D140" s="16"/>
@@ -11148,7 +11136,7 @@
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B141" s="15" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C141" s="16"/>
       <c r="D141" s="16"/>
@@ -11156,7 +11144,7 @@
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B142" s="15" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C142" s="16"/>
       <c r="D142" s="16"/>
@@ -11164,7 +11152,7 @@
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B143" s="15" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C143" s="16"/>
       <c r="D143" s="16"/>
@@ -11172,7 +11160,7 @@
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B144" s="15" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C144" s="16"/>
       <c r="D144" s="16"/>
@@ -11180,7 +11168,7 @@
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B145" s="15" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C145" s="16"/>
       <c r="D145" s="16"/>
@@ -11188,7 +11176,7 @@
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B146" s="15" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C146" s="16"/>
       <c r="D146" s="16"/>
@@ -11196,7 +11184,7 @@
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B147" s="15" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C147" s="16"/>
       <c r="D147" s="16"/>
@@ -11204,7 +11192,7 @@
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B148" s="15" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C148" s="16"/>
       <c r="D148" s="16"/>
@@ -11212,7 +11200,7 @@
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" s="15" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C149" s="16"/>
       <c r="D149" s="16"/>
@@ -11220,7 +11208,7 @@
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B150" s="15" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C150" s="16"/>
       <c r="D150" s="16"/>
@@ -11228,7 +11216,7 @@
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B151" s="15" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C151" s="16"/>
       <c r="D151" s="16"/>
@@ -11236,7 +11224,7 @@
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B152" s="15" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C152" s="16"/>
       <c r="D152" s="16"/>
@@ -11244,7 +11232,7 @@
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B153" s="15" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C153" s="16"/>
       <c r="D153" s="16"/>
@@ -11252,7 +11240,7 @@
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B154" s="15" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C154" s="16"/>
       <c r="D154" s="16"/>
@@ -11260,7 +11248,7 @@
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B155" s="15" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C155" s="16"/>
       <c r="D155" s="16"/>
@@ -11268,7 +11256,7 @@
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B156" s="15" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C156" s="16"/>
       <c r="D156" s="16"/>
@@ -11276,7 +11264,7 @@
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B157" s="15" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C157" s="16"/>
       <c r="D157" s="16"/>
@@ -11284,7 +11272,7 @@
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B158" s="15" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C158" s="16"/>
       <c r="D158" s="16"/>
@@ -11292,7 +11280,7 @@
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B159" s="15" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C159" s="16"/>
       <c r="D159" s="16"/>
@@ -11300,7 +11288,7 @@
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" s="15" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C160" s="16"/>
       <c r="D160" s="16"/>
@@ -11308,7 +11296,7 @@
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B161" s="15" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C161" s="16"/>
       <c r="D161" s="16"/>
@@ -11331,182 +11319,182 @@
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" s="14" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" s="14" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" s="14" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" s="14" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B15" s="14" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" s="14" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="14" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="14" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="14" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="14" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="14" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="14" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="14" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="14" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="14" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="14" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="14" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="14" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="14" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="14" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="14" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="14" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="14" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="14" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="14" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="14" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="14" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="14" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -11527,1888 +11515,1888 @@
   <sheetData>
     <row r="2" spans="2:205" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K2" t="s">
         <v>288</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L2" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" t="s">
         <v>289</v>
       </c>
-      <c r="H2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O2" t="s">
         <v>290</v>
       </c>
-      <c r="J2" t="s">
+      <c r="P2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q2" t="s">
         <v>291</v>
       </c>
-      <c r="K2" t="s">
+      <c r="R2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S2" t="s">
         <v>292</v>
       </c>
-      <c r="L2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="T2" t="s">
+        <v>138</v>
+      </c>
+      <c r="U2" t="s">
         <v>293</v>
       </c>
-      <c r="N2" t="s">
-        <v>136</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="V2" t="s">
         <v>294</v>
       </c>
-      <c r="P2" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="W2" t="s">
         <v>295</v>
       </c>
-      <c r="R2" t="s">
-        <v>138</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="X2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y2" t="s">
         <v>296</v>
       </c>
-      <c r="T2" t="s">
-        <v>139</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="Z2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA2" t="s">
         <v>297</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AB2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC2" t="s">
         <v>298</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AD2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE2" t="s">
         <v>299</v>
       </c>
-      <c r="X2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AF2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG2" t="s">
         <v>300</v>
       </c>
-      <c r="Z2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AH2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI2" t="s">
         <v>301</v>
       </c>
-      <c r="AB2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AJ2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK2" t="s">
         <v>302</v>
       </c>
-      <c r="AD2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AL2" t="s">
         <v>303</v>
       </c>
-      <c r="AF2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AM2" t="s">
         <v>304</v>
       </c>
-      <c r="AH2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="AN2" t="s">
         <v>305</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AO2" t="s">
+        <v>306</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>310</v>
+      </c>
+      <c r="AT2" t="s">
         <v>146</v>
       </c>
-      <c r="AK2" t="s">
-        <v>306</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>307</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>308</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>309</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>310</v>
-      </c>
-      <c r="AP2" t="s">
+      <c r="AU2" t="s">
         <v>311</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AV2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW2" t="s">
         <v>312</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AX2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY2" t="s">
         <v>313</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AZ2" t="s">
+        <v>149</v>
+      </c>
+      <c r="BA2" t="s">
         <v>314</v>
       </c>
-      <c r="AT2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU2" t="s">
+      <c r="BB2" t="s">
+        <v>150</v>
+      </c>
+      <c r="BC2" t="s">
         <v>315</v>
       </c>
-      <c r="AV2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AW2" t="s">
+      <c r="BD2" t="s">
         <v>316</v>
       </c>
-      <c r="AX2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AY2" t="s">
+      <c r="BE2" t="s">
         <v>317</v>
       </c>
-      <c r="AZ2" t="s">
-        <v>150</v>
-      </c>
-      <c r="BA2" t="s">
+      <c r="BF2" t="s">
+        <v>151</v>
+      </c>
+      <c r="BG2" t="s">
         <v>318</v>
       </c>
-      <c r="BB2" t="s">
-        <v>151</v>
-      </c>
-      <c r="BC2" t="s">
+      <c r="BH2" t="s">
+        <v>152</v>
+      </c>
+      <c r="BI2" t="s">
         <v>319</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BJ2" t="s">
+        <v>153</v>
+      </c>
+      <c r="BK2" t="s">
         <v>320</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BL2" t="s">
+        <v>154</v>
+      </c>
+      <c r="BM2" t="s">
         <v>321</v>
       </c>
-      <c r="BF2" t="s">
-        <v>152</v>
-      </c>
-      <c r="BG2" t="s">
+      <c r="BN2" t="s">
         <v>322</v>
       </c>
-      <c r="BH2" t="s">
-        <v>153</v>
-      </c>
-      <c r="BI2" t="s">
+      <c r="BO2" t="s">
         <v>323</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>154</v>
-      </c>
-      <c r="BK2" t="s">
+      <c r="BP2" t="s">
         <v>324</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BQ2" t="s">
+        <v>325</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>326</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>327</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>328</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>329</v>
+      </c>
+      <c r="BV2" t="s">
         <v>155</v>
       </c>
-      <c r="BM2" t="s">
-        <v>325</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>326</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>327</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>328</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>329</v>
-      </c>
-      <c r="BR2" t="s">
+      <c r="BW2" t="s">
         <v>330</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BX2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BY2" t="s">
         <v>331</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BZ2" t="s">
         <v>332</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="CA2" t="s">
         <v>333</v>
       </c>
-      <c r="BV2" t="s">
-        <v>156</v>
-      </c>
-      <c r="BW2" t="s">
+      <c r="CB2" t="s">
+        <v>157</v>
+      </c>
+      <c r="CC2" t="s">
         <v>334</v>
       </c>
-      <c r="BX2" t="s">
-        <v>157</v>
-      </c>
-      <c r="BY2" t="s">
+      <c r="CD2" t="s">
+        <v>158</v>
+      </c>
+      <c r="CE2" t="s">
         <v>335</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CF2" t="s">
         <v>336</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CG2" t="s">
         <v>337</v>
       </c>
-      <c r="CB2" t="s">
-        <v>158</v>
-      </c>
-      <c r="CC2" t="s">
+      <c r="CH2" t="s">
         <v>338</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CI2" t="s">
+        <v>339</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>340</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>341</v>
+      </c>
+      <c r="CL2" t="s">
         <v>159</v>
       </c>
-      <c r="CE2" t="s">
-        <v>339</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>340</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>341</v>
-      </c>
-      <c r="CH2" t="s">
+      <c r="CM2" t="s">
         <v>342</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CN2" t="s">
+        <v>160</v>
+      </c>
+      <c r="CO2" t="s">
         <v>343</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CP2" t="s">
+        <v>161</v>
+      </c>
+      <c r="CQ2" t="s">
         <v>344</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CR2" t="s">
         <v>345</v>
       </c>
-      <c r="CL2" t="s">
-        <v>160</v>
-      </c>
-      <c r="CM2" t="s">
+      <c r="CS2" t="s">
         <v>346</v>
       </c>
-      <c r="CN2" t="s">
-        <v>161</v>
-      </c>
-      <c r="CO2" t="s">
+      <c r="CT2" t="s">
         <v>347</v>
       </c>
-      <c r="CP2" t="s">
-        <v>162</v>
-      </c>
-      <c r="CQ2" t="s">
+      <c r="CU2" t="s">
         <v>348</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CV2" t="s">
         <v>349</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="CW2" t="s">
         <v>350</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CX2" t="s">
         <v>351</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CY2" t="s">
         <v>352</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="CZ2" t="s">
         <v>353</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="DA2" t="s">
         <v>354</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="DB2" t="s">
         <v>355</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DC2" t="s">
         <v>356</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DD2" t="s">
         <v>357</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DE2" t="s">
         <v>358</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="DF2" t="s">
         <v>359</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DG2" t="s">
         <v>360</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DH2" t="s">
         <v>361</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DI2" t="s">
         <v>362</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="DJ2" t="s">
         <v>363</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DK2" t="s">
         <v>364</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="DL2" t="s">
         <v>365</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="DM2" t="s">
         <v>366</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="DN2" t="s">
         <v>367</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="DO2" t="s">
         <v>368</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="DP2" t="s">
         <v>369</v>
       </c>
-      <c r="DM2" t="s">
+      <c r="DQ2" t="s">
         <v>370</v>
       </c>
-      <c r="DN2" t="s">
+      <c r="DR2" t="s">
         <v>371</v>
       </c>
-      <c r="DO2" t="s">
+      <c r="DS2" t="s">
         <v>372</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="DT2" t="s">
         <v>373</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="DU2" t="s">
         <v>374</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="DV2" t="s">
         <v>375</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="DW2" t="s">
         <v>376</v>
       </c>
-      <c r="DT2" t="s">
+      <c r="DX2" t="s">
         <v>377</v>
       </c>
-      <c r="DU2" t="s">
+      <c r="DY2" t="s">
         <v>378</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="DZ2" t="s">
         <v>379</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="EA2" t="s">
         <v>380</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="EB2" t="s">
         <v>381</v>
       </c>
-      <c r="DY2" t="s">
+      <c r="EC2" t="s">
         <v>382</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="ED2" t="s">
         <v>383</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EE2" t="s">
         <v>384</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="EF2" t="s">
         <v>385</v>
       </c>
-      <c r="EC2" t="s">
+      <c r="EG2" t="s">
         <v>386</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="EH2" t="s">
         <v>387</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="EI2" t="s">
         <v>388</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EJ2" t="s">
         <v>389</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="EK2" t="s">
         <v>390</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="EL2" t="s">
         <v>391</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="EM2" t="s">
         <v>392</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="EN2" t="s">
         <v>393</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="EO2" t="s">
         <v>394</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="EP2" t="s">
         <v>395</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="EQ2" t="s">
         <v>396</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="ER2" t="s">
         <v>397</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="ES2" t="s">
         <v>398</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="ET2" t="s">
         <v>399</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="EU2" t="s">
         <v>400</v>
       </c>
-      <c r="ER2" t="s">
+      <c r="EV2" t="s">
         <v>401</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="EW2" t="s">
         <v>402</v>
       </c>
-      <c r="ET2" t="s">
+      <c r="EX2" t="s">
         <v>403</v>
       </c>
-      <c r="EU2" t="s">
+      <c r="EY2" t="s">
         <v>404</v>
       </c>
-      <c r="EV2" t="s">
+      <c r="EZ2" t="s">
         <v>405</v>
       </c>
-      <c r="EW2" t="s">
+      <c r="FA2" t="s">
         <v>406</v>
       </c>
-      <c r="EX2" t="s">
+      <c r="FB2" t="s">
         <v>407</v>
       </c>
-      <c r="EY2" t="s">
+      <c r="FC2" t="s">
         <v>408</v>
       </c>
-      <c r="EZ2" t="s">
+      <c r="FD2" t="s">
         <v>409</v>
       </c>
-      <c r="FA2" t="s">
+      <c r="FE2" t="s">
         <v>410</v>
       </c>
-      <c r="FB2" t="s">
+      <c r="FF2" t="s">
         <v>411</v>
       </c>
-      <c r="FC2" t="s">
+      <c r="FG2" t="s">
         <v>412</v>
       </c>
-      <c r="FD2" t="s">
+      <c r="FH2" t="s">
         <v>413</v>
       </c>
-      <c r="FE2" t="s">
+      <c r="FI2" t="s">
         <v>414</v>
       </c>
-      <c r="FF2" t="s">
+      <c r="FJ2" t="s">
         <v>415</v>
       </c>
-      <c r="FG2" t="s">
+      <c r="FK2" t="s">
         <v>416</v>
       </c>
-      <c r="FH2" t="s">
+      <c r="FL2" t="s">
         <v>417</v>
       </c>
-      <c r="FI2" t="s">
+      <c r="FM2" t="s">
         <v>418</v>
       </c>
-      <c r="FJ2" t="s">
+      <c r="FN2" t="s">
         <v>419</v>
       </c>
-      <c r="FK2" t="s">
+      <c r="FO2" t="s">
         <v>420</v>
       </c>
-      <c r="FL2" t="s">
+      <c r="FP2" t="s">
         <v>421</v>
       </c>
-      <c r="FM2" t="s">
+      <c r="FQ2" t="s">
         <v>422</v>
       </c>
-      <c r="FN2" t="s">
+      <c r="FR2" t="s">
         <v>423</v>
       </c>
-      <c r="FO2" t="s">
+      <c r="FS2" t="s">
         <v>424</v>
       </c>
-      <c r="FP2" t="s">
+      <c r="FT2" t="s">
         <v>425</v>
       </c>
-      <c r="FQ2" t="s">
+      <c r="FU2" t="s">
         <v>426</v>
       </c>
-      <c r="FR2" t="s">
+      <c r="FV2" t="s">
         <v>427</v>
       </c>
-      <c r="FS2" t="s">
+      <c r="FW2" t="s">
         <v>428</v>
       </c>
-      <c r="FT2" t="s">
+      <c r="FX2" t="s">
         <v>429</v>
       </c>
-      <c r="FU2" t="s">
+      <c r="FY2" t="s">
         <v>430</v>
       </c>
-      <c r="FV2" t="s">
+      <c r="FZ2" t="s">
         <v>431</v>
       </c>
-      <c r="FW2" t="s">
+      <c r="GA2" t="s">
         <v>432</v>
       </c>
-      <c r="FX2" t="s">
+      <c r="GB2" t="s">
         <v>433</v>
       </c>
-      <c r="FY2" t="s">
+      <c r="GC2" t="s">
         <v>434</v>
       </c>
-      <c r="FZ2" t="s">
+      <c r="GD2" t="s">
         <v>435</v>
       </c>
-      <c r="GA2" t="s">
+      <c r="GE2" t="s">
         <v>436</v>
       </c>
-      <c r="GB2" t="s">
+      <c r="GF2" t="s">
         <v>437</v>
       </c>
-      <c r="GC2" t="s">
+      <c r="GG2" t="s">
         <v>438</v>
       </c>
-      <c r="GD2" t="s">
+      <c r="GH2" t="s">
         <v>439</v>
       </c>
-      <c r="GE2" t="s">
+      <c r="GI2" t="s">
         <v>440</v>
       </c>
-      <c r="GF2" t="s">
+      <c r="GJ2" t="s">
         <v>441</v>
       </c>
-      <c r="GG2" t="s">
+      <c r="GK2" t="s">
         <v>442</v>
       </c>
-      <c r="GH2" t="s">
+      <c r="GL2" t="s">
         <v>443</v>
       </c>
-      <c r="GI2" t="s">
+      <c r="GM2" t="s">
         <v>444</v>
       </c>
-      <c r="GJ2" t="s">
+      <c r="GN2" t="s">
         <v>445</v>
       </c>
-      <c r="GK2" t="s">
+      <c r="GO2" t="s">
         <v>446</v>
       </c>
-      <c r="GL2" t="s">
+      <c r="GP2" t="s">
         <v>447</v>
       </c>
-      <c r="GM2" t="s">
+      <c r="GQ2" t="s">
         <v>448</v>
       </c>
-      <c r="GN2" t="s">
+      <c r="GR2" t="s">
         <v>449</v>
       </c>
-      <c r="GO2" t="s">
+      <c r="GS2" t="s">
         <v>450</v>
       </c>
-      <c r="GP2" t="s">
+      <c r="GT2" t="s">
         <v>451</v>
       </c>
-      <c r="GQ2" t="s">
+      <c r="GU2" t="s">
         <v>452</v>
       </c>
-      <c r="GR2" t="s">
+      <c r="GV2" t="s">
         <v>453</v>
       </c>
-      <c r="GS2" t="s">
+      <c r="GW2" t="s">
         <v>454</v>
-      </c>
-      <c r="GT2" t="s">
-        <v>455</v>
-      </c>
-      <c r="GU2" t="s">
-        <v>456</v>
-      </c>
-      <c r="GV2" t="s">
-        <v>457</v>
-      </c>
-      <c r="GW2" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="3" spans="2:205" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
       <c r="I3" t="s">
+        <v>286</v>
+      </c>
+      <c r="J3" t="s">
+        <v>456</v>
+      </c>
+      <c r="K3" t="s">
+        <v>288</v>
+      </c>
+      <c r="L3" t="s">
+        <v>457</v>
+      </c>
+      <c r="M3" t="s">
+        <v>289</v>
+      </c>
+      <c r="N3" t="s">
+        <v>458</v>
+      </c>
+      <c r="O3" t="s">
         <v>290</v>
       </c>
-      <c r="J3" t="s">
+      <c r="P3" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>291</v>
+      </c>
+      <c r="R3" t="s">
         <v>460</v>
       </c>
-      <c r="K3" t="s">
+      <c r="S3" t="s">
         <v>292</v>
       </c>
-      <c r="L3" t="s">
+      <c r="T3" t="s">
         <v>461</v>
       </c>
-      <c r="M3" t="s">
+      <c r="U3" t="s">
         <v>293</v>
       </c>
-      <c r="N3" t="s">
+      <c r="V3" t="s">
         <v>462</v>
       </c>
-      <c r="O3" t="s">
-        <v>294</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="W3" t="s">
+        <v>295</v>
+      </c>
+      <c r="X3" t="s">
         <v>463</v>
       </c>
-      <c r="Q3" t="s">
-        <v>295</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="Y3" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z3" t="s">
         <v>464</v>
       </c>
-      <c r="S3" t="s">
-        <v>296</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="AA3" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB3" t="s">
         <v>465</v>
       </c>
-      <c r="U3" t="s">
-        <v>297</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="AC3" t="s">
+        <v>298</v>
+      </c>
+      <c r="AD3" t="s">
         <v>466</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AE3" t="s">
         <v>299</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AF3" t="s">
         <v>467</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AG3" t="s">
         <v>300</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AH3" t="s">
         <v>468</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AI3" t="s">
         <v>301</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AJ3" t="s">
         <v>469</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AK3" t="s">
         <v>302</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AL3" t="s">
         <v>470</v>
       </c>
-      <c r="AE3" t="s">
-        <v>303</v>
-      </c>
-      <c r="AF3" t="s">
+      <c r="AM3" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN3" t="s">
         <v>471</v>
       </c>
-      <c r="AG3" t="s">
-        <v>304</v>
-      </c>
-      <c r="AH3" t="s">
+      <c r="AO3" t="s">
+        <v>306</v>
+      </c>
+      <c r="AP3" t="s">
         <v>472</v>
       </c>
-      <c r="AI3" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ3" t="s">
+      <c r="AQ3" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR3" t="s">
         <v>473</v>
       </c>
-      <c r="AK3" t="s">
-        <v>306</v>
-      </c>
-      <c r="AL3" t="s">
+      <c r="AS3" t="s">
+        <v>310</v>
+      </c>
+      <c r="AT3" t="s">
         <v>474</v>
       </c>
-      <c r="AM3" t="s">
-        <v>308</v>
-      </c>
-      <c r="AN3" t="s">
+      <c r="AU3" t="s">
+        <v>311</v>
+      </c>
+      <c r="AV3" t="s">
         <v>475</v>
       </c>
-      <c r="AO3" t="s">
-        <v>310</v>
-      </c>
-      <c r="AP3" t="s">
+      <c r="AW3" t="s">
+        <v>312</v>
+      </c>
+      <c r="AX3" t="s">
         <v>476</v>
       </c>
-      <c r="AQ3" t="s">
-        <v>312</v>
-      </c>
-      <c r="AR3" t="s">
+      <c r="AY3" t="s">
+        <v>313</v>
+      </c>
+      <c r="AZ3" t="s">
         <v>477</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="BA3" t="s">
         <v>314</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="BB3" t="s">
         <v>478</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="BC3" t="s">
         <v>315</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="BD3" t="s">
         <v>479</v>
       </c>
-      <c r="AW3" t="s">
-        <v>316</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>480</v>
-      </c>
-      <c r="AY3" t="s">
+      <c r="BE3" t="s">
         <v>317</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>481</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>318</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>482</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>319</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>483</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>321</v>
       </c>
       <c r="BF3" t="s">
         <v>25</v>
       </c>
       <c r="BG3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="BH3" t="s">
         <v>26</v>
       </c>
       <c r="BI3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="BJ3" t="s">
         <v>27</v>
       </c>
       <c r="BK3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BL3" t="s">
         <v>28</v>
       </c>
       <c r="BM3" t="s">
+        <v>321</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>322</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>323</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>324</v>
+      </c>
+      <c r="BQ3" t="s">
         <v>325</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BR3" t="s">
         <v>326</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BS3" t="s">
         <v>327</v>
       </c>
-      <c r="BP3" t="s">
-        <v>328</v>
-      </c>
-      <c r="BQ3" t="s">
+      <c r="BT3" t="s">
+        <v>480</v>
+      </c>
+      <c r="BU3" t="s">
         <v>329</v>
       </c>
-      <c r="BR3" t="s">
+      <c r="BV3" t="s">
+        <v>481</v>
+      </c>
+      <c r="BW3" t="s">
         <v>330</v>
       </c>
-      <c r="BS3" t="s">
+      <c r="BX3" t="s">
+        <v>482</v>
+      </c>
+      <c r="BY3" t="s">
         <v>331</v>
       </c>
-      <c r="BT3" t="s">
+      <c r="BZ3" t="s">
+        <v>483</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>333</v>
+      </c>
+      <c r="CB3" t="s">
         <v>484</v>
       </c>
-      <c r="BU3" t="s">
-        <v>333</v>
-      </c>
-      <c r="BV3" t="s">
+      <c r="CC3" t="s">
+        <v>334</v>
+      </c>
+      <c r="CD3" t="s">
         <v>485</v>
       </c>
-      <c r="BW3" t="s">
-        <v>334</v>
-      </c>
-      <c r="BX3" t="s">
+      <c r="CE3" t="s">
+        <v>335</v>
+      </c>
+      <c r="CF3" t="s">
         <v>486</v>
       </c>
-      <c r="BY3" t="s">
-        <v>335</v>
-      </c>
-      <c r="BZ3" t="s">
+      <c r="CG3" t="s">
+        <v>337</v>
+      </c>
+      <c r="CH3" t="s">
         <v>487</v>
       </c>
-      <c r="CA3" t="s">
-        <v>337</v>
-      </c>
-      <c r="CB3" t="s">
+      <c r="CI3" t="s">
+        <v>339</v>
+      </c>
+      <c r="CJ3" t="s">
         <v>488</v>
       </c>
-      <c r="CC3" t="s">
-        <v>338</v>
-      </c>
-      <c r="CD3" t="s">
+      <c r="CK3" t="s">
+        <v>341</v>
+      </c>
+      <c r="CL3" t="s">
         <v>489</v>
       </c>
-      <c r="CE3" t="s">
-        <v>339</v>
-      </c>
-      <c r="CF3" t="s">
+      <c r="CM3" t="s">
+        <v>342</v>
+      </c>
+      <c r="CN3" t="s">
         <v>490</v>
       </c>
-      <c r="CG3" t="s">
-        <v>341</v>
-      </c>
-      <c r="CH3" t="s">
+      <c r="CO3" t="s">
+        <v>343</v>
+      </c>
+      <c r="CP3" t="s">
         <v>491</v>
       </c>
-      <c r="CI3" t="s">
-        <v>343</v>
-      </c>
-      <c r="CJ3" t="s">
+      <c r="CQ3" t="s">
+        <v>344</v>
+      </c>
+      <c r="CR3" t="s">
         <v>492</v>
       </c>
-      <c r="CK3" t="s">
-        <v>345</v>
-      </c>
-      <c r="CL3" t="s">
+      <c r="CS3" t="s">
+        <v>346</v>
+      </c>
+      <c r="CT3" t="s">
         <v>493</v>
       </c>
-      <c r="CM3" t="s">
-        <v>346</v>
-      </c>
-      <c r="CN3" t="s">
+      <c r="CU3" t="s">
+        <v>348</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>349</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>350</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>351</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>352</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>353</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>354</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>355</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>356</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>357</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>358</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>359</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>360</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>361</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>362</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>363</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>364</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>365</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>366</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>367</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>368</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>369</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>370</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>371</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>372</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>373</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>374</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>375</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>376</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>377</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>378</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>379</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>380</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>381</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>382</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>383</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>384</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>385</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>386</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>387</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>388</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>389</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>390</v>
+      </c>
+      <c r="EL3" t="s">
         <v>494</v>
       </c>
-      <c r="CO3" t="s">
-        <v>347</v>
-      </c>
-      <c r="CP3" t="s">
+      <c r="EM3" t="s">
+        <v>392</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>393</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>394</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>395</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>396</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>397</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>398</v>
+      </c>
+      <c r="ET3" t="s">
+        <v>399</v>
+      </c>
+      <c r="EU3" t="s">
+        <v>400</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>401</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>402</v>
+      </c>
+      <c r="EX3" t="s">
+        <v>403</v>
+      </c>
+      <c r="EY3" t="s">
+        <v>404</v>
+      </c>
+      <c r="EZ3" t="s">
+        <v>405</v>
+      </c>
+      <c r="FA3" t="s">
+        <v>406</v>
+      </c>
+      <c r="FB3" t="s">
+        <v>407</v>
+      </c>
+      <c r="FC3" t="s">
+        <v>408</v>
+      </c>
+      <c r="FD3" t="s">
+        <v>409</v>
+      </c>
+      <c r="FE3" t="s">
+        <v>410</v>
+      </c>
+      <c r="FF3" t="s">
+        <v>411</v>
+      </c>
+      <c r="FG3" t="s">
+        <v>412</v>
+      </c>
+      <c r="FH3" t="s">
         <v>495</v>
       </c>
-      <c r="CQ3" t="s">
-        <v>348</v>
-      </c>
-      <c r="CR3" t="s">
+      <c r="FI3" t="s">
+        <v>414</v>
+      </c>
+      <c r="FJ3" t="s">
+        <v>415</v>
+      </c>
+      <c r="FK3" t="s">
+        <v>416</v>
+      </c>
+      <c r="FL3" t="s">
+        <v>417</v>
+      </c>
+      <c r="FM3" t="s">
+        <v>418</v>
+      </c>
+      <c r="FN3" t="s">
+        <v>419</v>
+      </c>
+      <c r="FO3" t="s">
+        <v>420</v>
+      </c>
+      <c r="FP3" t="s">
+        <v>421</v>
+      </c>
+      <c r="FQ3" t="s">
+        <v>422</v>
+      </c>
+      <c r="FR3" t="s">
         <v>496</v>
       </c>
-      <c r="CS3" t="s">
-        <v>350</v>
-      </c>
-      <c r="CT3" t="s">
+      <c r="FS3" t="s">
+        <v>424</v>
+      </c>
+      <c r="FT3" t="s">
+        <v>425</v>
+      </c>
+      <c r="FU3" t="s">
+        <v>426</v>
+      </c>
+      <c r="FV3" t="s">
+        <v>427</v>
+      </c>
+      <c r="FW3" t="s">
+        <v>428</v>
+      </c>
+      <c r="FX3" t="s">
+        <v>429</v>
+      </c>
+      <c r="FY3" t="s">
+        <v>430</v>
+      </c>
+      <c r="FZ3" t="s">
+        <v>431</v>
+      </c>
+      <c r="GA3" t="s">
+        <v>432</v>
+      </c>
+      <c r="GB3" t="s">
+        <v>433</v>
+      </c>
+      <c r="GC3" t="s">
+        <v>434</v>
+      </c>
+      <c r="GD3" t="s">
         <v>497</v>
       </c>
-      <c r="CU3" t="s">
-        <v>352</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>353</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>354</v>
-      </c>
-      <c r="CX3" t="s">
-        <v>355</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>356</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>357</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>358</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>359</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>360</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>361</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>362</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>363</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>364</v>
-      </c>
-      <c r="DH3" t="s">
-        <v>365</v>
-      </c>
-      <c r="DI3" t="s">
-        <v>366</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>367</v>
-      </c>
-      <c r="DK3" t="s">
-        <v>368</v>
-      </c>
-      <c r="DL3" t="s">
-        <v>369</v>
-      </c>
-      <c r="DM3" t="s">
-        <v>370</v>
-      </c>
-      <c r="DN3" t="s">
-        <v>371</v>
-      </c>
-      <c r="DO3" t="s">
-        <v>372</v>
-      </c>
-      <c r="DP3" t="s">
-        <v>373</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>374</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>375</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>376</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>377</v>
-      </c>
-      <c r="DU3" t="s">
-        <v>378</v>
-      </c>
-      <c r="DV3" t="s">
-        <v>379</v>
-      </c>
-      <c r="DW3" t="s">
-        <v>380</v>
-      </c>
-      <c r="DX3" t="s">
-        <v>381</v>
-      </c>
-      <c r="DY3" t="s">
-        <v>382</v>
-      </c>
-      <c r="DZ3" t="s">
-        <v>383</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>384</v>
-      </c>
-      <c r="EB3" t="s">
-        <v>385</v>
-      </c>
-      <c r="EC3" t="s">
-        <v>386</v>
-      </c>
-      <c r="ED3" t="s">
-        <v>387</v>
-      </c>
-      <c r="EE3" t="s">
-        <v>388</v>
-      </c>
-      <c r="EF3" t="s">
-        <v>389</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>390</v>
-      </c>
-      <c r="EH3" t="s">
-        <v>391</v>
-      </c>
-      <c r="EI3" t="s">
-        <v>392</v>
-      </c>
-      <c r="EJ3" t="s">
-        <v>393</v>
-      </c>
-      <c r="EK3" t="s">
-        <v>394</v>
-      </c>
-      <c r="EL3" t="s">
+      <c r="GE3" t="s">
+        <v>436</v>
+      </c>
+      <c r="GF3" t="s">
+        <v>437</v>
+      </c>
+      <c r="GG3" t="s">
+        <v>438</v>
+      </c>
+      <c r="GH3" t="s">
+        <v>439</v>
+      </c>
+      <c r="GI3" t="s">
+        <v>440</v>
+      </c>
+      <c r="GJ3" t="s">
+        <v>441</v>
+      </c>
+      <c r="GK3" t="s">
+        <v>442</v>
+      </c>
+      <c r="GL3" t="s">
+        <v>443</v>
+      </c>
+      <c r="GM3" t="s">
+        <v>444</v>
+      </c>
+      <c r="GN3" t="s">
+        <v>445</v>
+      </c>
+      <c r="GO3" t="s">
+        <v>446</v>
+      </c>
+      <c r="GP3" t="s">
+        <v>447</v>
+      </c>
+      <c r="GQ3" t="s">
+        <v>448</v>
+      </c>
+      <c r="GR3" t="s">
+        <v>449</v>
+      </c>
+      <c r="GS3" t="s">
+        <v>450</v>
+      </c>
+      <c r="GT3" t="s">
+        <v>451</v>
+      </c>
+      <c r="GU3" t="s">
+        <v>452</v>
+      </c>
+      <c r="GV3" t="s">
+        <v>453</v>
+      </c>
+      <c r="GW3" t="s">
         <v>498</v>
-      </c>
-      <c r="EM3" t="s">
-        <v>396</v>
-      </c>
-      <c r="EN3" t="s">
-        <v>397</v>
-      </c>
-      <c r="EO3" t="s">
-        <v>398</v>
-      </c>
-      <c r="EP3" t="s">
-        <v>399</v>
-      </c>
-      <c r="EQ3" t="s">
-        <v>400</v>
-      </c>
-      <c r="ER3" t="s">
-        <v>401</v>
-      </c>
-      <c r="ES3" t="s">
-        <v>402</v>
-      </c>
-      <c r="ET3" t="s">
-        <v>403</v>
-      </c>
-      <c r="EU3" t="s">
-        <v>404</v>
-      </c>
-      <c r="EV3" t="s">
-        <v>405</v>
-      </c>
-      <c r="EW3" t="s">
-        <v>406</v>
-      </c>
-      <c r="EX3" t="s">
-        <v>407</v>
-      </c>
-      <c r="EY3" t="s">
-        <v>408</v>
-      </c>
-      <c r="EZ3" t="s">
-        <v>409</v>
-      </c>
-      <c r="FA3" t="s">
-        <v>410</v>
-      </c>
-      <c r="FB3" t="s">
-        <v>411</v>
-      </c>
-      <c r="FC3" t="s">
-        <v>412</v>
-      </c>
-      <c r="FD3" t="s">
-        <v>413</v>
-      </c>
-      <c r="FE3" t="s">
-        <v>414</v>
-      </c>
-      <c r="FF3" t="s">
-        <v>415</v>
-      </c>
-      <c r="FG3" t="s">
-        <v>416</v>
-      </c>
-      <c r="FH3" t="s">
-        <v>499</v>
-      </c>
-      <c r="FI3" t="s">
-        <v>418</v>
-      </c>
-      <c r="FJ3" t="s">
-        <v>419</v>
-      </c>
-      <c r="FK3" t="s">
-        <v>420</v>
-      </c>
-      <c r="FL3" t="s">
-        <v>421</v>
-      </c>
-      <c r="FM3" t="s">
-        <v>422</v>
-      </c>
-      <c r="FN3" t="s">
-        <v>423</v>
-      </c>
-      <c r="FO3" t="s">
-        <v>424</v>
-      </c>
-      <c r="FP3" t="s">
-        <v>425</v>
-      </c>
-      <c r="FQ3" t="s">
-        <v>426</v>
-      </c>
-      <c r="FR3" t="s">
-        <v>500</v>
-      </c>
-      <c r="FS3" t="s">
-        <v>428</v>
-      </c>
-      <c r="FT3" t="s">
-        <v>429</v>
-      </c>
-      <c r="FU3" t="s">
-        <v>430</v>
-      </c>
-      <c r="FV3" t="s">
-        <v>431</v>
-      </c>
-      <c r="FW3" t="s">
-        <v>432</v>
-      </c>
-      <c r="FX3" t="s">
-        <v>433</v>
-      </c>
-      <c r="FY3" t="s">
-        <v>434</v>
-      </c>
-      <c r="FZ3" t="s">
-        <v>435</v>
-      </c>
-      <c r="GA3" t="s">
-        <v>436</v>
-      </c>
-      <c r="GB3" t="s">
-        <v>437</v>
-      </c>
-      <c r="GC3" t="s">
-        <v>438</v>
-      </c>
-      <c r="GD3" t="s">
-        <v>501</v>
-      </c>
-      <c r="GE3" t="s">
-        <v>440</v>
-      </c>
-      <c r="GF3" t="s">
-        <v>441</v>
-      </c>
-      <c r="GG3" t="s">
-        <v>442</v>
-      </c>
-      <c r="GH3" t="s">
-        <v>443</v>
-      </c>
-      <c r="GI3" t="s">
-        <v>444</v>
-      </c>
-      <c r="GJ3" t="s">
-        <v>445</v>
-      </c>
-      <c r="GK3" t="s">
-        <v>446</v>
-      </c>
-      <c r="GL3" t="s">
-        <v>447</v>
-      </c>
-      <c r="GM3" t="s">
-        <v>448</v>
-      </c>
-      <c r="GN3" t="s">
-        <v>449</v>
-      </c>
-      <c r="GO3" t="s">
-        <v>450</v>
-      </c>
-      <c r="GP3" t="s">
-        <v>451</v>
-      </c>
-      <c r="GQ3" t="s">
-        <v>452</v>
-      </c>
-      <c r="GR3" t="s">
-        <v>453</v>
-      </c>
-      <c r="GS3" t="s">
-        <v>454</v>
-      </c>
-      <c r="GT3" t="s">
-        <v>455</v>
-      </c>
-      <c r="GU3" t="s">
-        <v>456</v>
-      </c>
-      <c r="GV3" t="s">
-        <v>457</v>
-      </c>
-      <c r="GW3" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="4" spans="2:205" x14ac:dyDescent="0.2">
       <c r="F4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G4" t="s">
+        <v>499</v>
+      </c>
+      <c r="H4" t="s">
+        <v>500</v>
+      </c>
+      <c r="L4" t="s">
+        <v>501</v>
+      </c>
+      <c r="N4" t="s">
+        <v>502</v>
+      </c>
+      <c r="P4" t="s">
         <v>503</v>
       </c>
-      <c r="H4" t="s">
+      <c r="R4" t="s">
         <v>504</v>
       </c>
-      <c r="L4" t="s">
+      <c r="V4" t="s">
+        <v>462</v>
+      </c>
+      <c r="X4" t="s">
+        <v>463</v>
+      </c>
+      <c r="AR4" t="s">
         <v>505</v>
       </c>
-      <c r="N4" t="s">
+      <c r="AT4" t="s">
         <v>506</v>
       </c>
-      <c r="P4" t="s">
+      <c r="AV4" t="s">
         <v>507</v>
       </c>
-      <c r="R4" t="s">
+      <c r="AZ4" t="s">
         <v>508</v>
       </c>
-      <c r="V4" t="s">
-        <v>466</v>
-      </c>
-      <c r="X4" t="s">
-        <v>467</v>
-      </c>
-      <c r="AR4" t="s">
+      <c r="BF4" t="s">
         <v>509</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="BH4" t="s">
         <v>510</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="BJ4" t="s">
         <v>511</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BL4" t="s">
         <v>512</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BV4" t="s">
         <v>513</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BX4" t="s">
         <v>514</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="CB4" t="s">
         <v>515</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="CL4" t="s">
         <v>516</v>
       </c>
-      <c r="BV4" t="s">
+      <c r="CN4" t="s">
         <v>517</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>518</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>519</v>
-      </c>
-      <c r="CL4" t="s">
-        <v>520</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="5" spans="2:205" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C5" t="s">
+        <v>519</v>
+      </c>
+      <c r="D5" t="s">
+        <v>520</v>
+      </c>
+      <c r="E5" t="s">
+        <v>521</v>
+      </c>
+      <c r="F5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" t="s">
         <v>522</v>
       </c>
-      <c r="C5" t="s">
-        <v>523</v>
-      </c>
-      <c r="D5" t="s">
-        <v>524</v>
-      </c>
-      <c r="E5" t="s">
-        <v>525</v>
-      </c>
-      <c r="F5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G5" t="s">
-        <v>526</v>
-      </c>
       <c r="H5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" t="s">
+        <v>286</v>
+      </c>
+      <c r="J5" t="s">
+        <v>287</v>
+      </c>
+      <c r="K5" t="s">
+        <v>288</v>
+      </c>
+      <c r="L5" t="s">
         <v>134</v>
       </c>
-      <c r="I5" t="s">
+      <c r="M5" t="s">
+        <v>289</v>
+      </c>
+      <c r="N5" t="s">
+        <v>135</v>
+      </c>
+      <c r="O5" t="s">
         <v>290</v>
       </c>
-      <c r="J5" t="s">
+      <c r="P5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q5" t="s">
         <v>291</v>
       </c>
-      <c r="K5" t="s">
+      <c r="R5" t="s">
+        <v>137</v>
+      </c>
+      <c r="S5" t="s">
         <v>292</v>
       </c>
-      <c r="L5" t="s">
-        <v>135</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="T5" t="s">
+        <v>138</v>
+      </c>
+      <c r="U5" t="s">
         <v>293</v>
       </c>
-      <c r="N5" t="s">
-        <v>136</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="V5" t="s">
         <v>294</v>
       </c>
-      <c r="P5" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="W5" t="s">
         <v>295</v>
       </c>
-      <c r="R5" t="s">
-        <v>138</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="X5" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y5" t="s">
         <v>296</v>
       </c>
-      <c r="T5" t="s">
-        <v>139</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="Z5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA5" t="s">
         <v>297</v>
       </c>
-      <c r="V5" t="s">
+      <c r="AB5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC5" t="s">
         <v>298</v>
       </c>
-      <c r="W5" t="s">
+      <c r="AD5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE5" t="s">
         <v>299</v>
       </c>
-      <c r="X5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y5" t="s">
+      <c r="AF5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG5" t="s">
         <v>300</v>
       </c>
-      <c r="Z5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA5" t="s">
+      <c r="AH5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI5" t="s">
         <v>301</v>
       </c>
-      <c r="AB5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AJ5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK5" t="s">
         <v>302</v>
       </c>
-      <c r="AD5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE5" t="s">
+      <c r="AL5" t="s">
         <v>303</v>
       </c>
-      <c r="AF5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="AM5" t="s">
         <v>304</v>
       </c>
-      <c r="AH5" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI5" t="s">
+      <c r="AN5" t="s">
         <v>305</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AO5" t="s">
+        <v>306</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>309</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>310</v>
+      </c>
+      <c r="AT5" t="s">
         <v>146</v>
       </c>
-      <c r="AK5" t="s">
-        <v>306</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>307</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>308</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>309</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>310</v>
-      </c>
-      <c r="AP5" t="s">
+      <c r="AU5" t="s">
         <v>311</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AV5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW5" t="s">
         <v>312</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AX5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY5" t="s">
         <v>313</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AZ5" t="s">
+        <v>149</v>
+      </c>
+      <c r="BA5" t="s">
         <v>314</v>
       </c>
-      <c r="AT5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU5" t="s">
+      <c r="BB5" t="s">
+        <v>150</v>
+      </c>
+      <c r="BC5" t="s">
         <v>315</v>
       </c>
-      <c r="AV5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AW5" t="s">
+      <c r="BD5" t="s">
         <v>316</v>
       </c>
-      <c r="AX5" t="s">
-        <v>149</v>
-      </c>
-      <c r="AY5" t="s">
+      <c r="BE5" t="s">
         <v>317</v>
       </c>
-      <c r="AZ5" t="s">
-        <v>150</v>
-      </c>
-      <c r="BA5" t="s">
+      <c r="BF5" t="s">
+        <v>151</v>
+      </c>
+      <c r="BG5" t="s">
         <v>318</v>
       </c>
-      <c r="BB5" t="s">
-        <v>151</v>
-      </c>
-      <c r="BC5" t="s">
+      <c r="BH5" t="s">
+        <v>152</v>
+      </c>
+      <c r="BI5" t="s">
         <v>319</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BJ5" t="s">
+        <v>153</v>
+      </c>
+      <c r="BK5" t="s">
         <v>320</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BL5" t="s">
+        <v>154</v>
+      </c>
+      <c r="BM5" t="s">
         <v>321</v>
       </c>
-      <c r="BF5" t="s">
-        <v>152</v>
-      </c>
-      <c r="BG5" t="s">
+      <c r="BN5" t="s">
         <v>322</v>
       </c>
-      <c r="BH5" t="s">
-        <v>153</v>
-      </c>
-      <c r="BI5" t="s">
+      <c r="BO5" t="s">
         <v>323</v>
       </c>
-      <c r="BJ5" t="s">
-        <v>154</v>
-      </c>
-      <c r="BK5" t="s">
+      <c r="BP5" t="s">
         <v>324</v>
       </c>
-      <c r="BL5" t="s">
+      <c r="BQ5" t="s">
+        <v>325</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>326</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>327</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>328</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>329</v>
+      </c>
+      <c r="BV5" t="s">
         <v>155</v>
       </c>
-      <c r="BM5" t="s">
-        <v>325</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>326</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>327</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>328</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>329</v>
-      </c>
-      <c r="BR5" t="s">
+      <c r="BW5" t="s">
         <v>330</v>
       </c>
-      <c r="BS5" t="s">
+      <c r="BX5" t="s">
+        <v>156</v>
+      </c>
+      <c r="BY5" t="s">
         <v>331</v>
       </c>
-      <c r="BT5" t="s">
+      <c r="BZ5" t="s">
         <v>332</v>
       </c>
-      <c r="BU5" t="s">
+      <c r="CA5" t="s">
         <v>333</v>
       </c>
-      <c r="BV5" t="s">
-        <v>156</v>
-      </c>
-      <c r="BW5" t="s">
+      <c r="CB5" t="s">
+        <v>157</v>
+      </c>
+      <c r="CC5" t="s">
         <v>334</v>
       </c>
-      <c r="BX5" t="s">
-        <v>157</v>
-      </c>
-      <c r="BY5" t="s">
+      <c r="CD5" t="s">
+        <v>158</v>
+      </c>
+      <c r="CE5" t="s">
         <v>335</v>
       </c>
-      <c r="BZ5" t="s">
+      <c r="CF5" t="s">
         <v>336</v>
       </c>
-      <c r="CA5" t="s">
+      <c r="CG5" t="s">
         <v>337</v>
       </c>
-      <c r="CB5" t="s">
-        <v>158</v>
-      </c>
-      <c r="CC5" t="s">
+      <c r="CH5" t="s">
         <v>338</v>
       </c>
-      <c r="CD5" t="s">
+      <c r="CI5" t="s">
+        <v>339</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>340</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>341</v>
+      </c>
+      <c r="CL5" t="s">
         <v>159</v>
       </c>
-      <c r="CE5" t="s">
-        <v>339</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>340</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>341</v>
-      </c>
-      <c r="CH5" t="s">
+      <c r="CM5" t="s">
         <v>342</v>
       </c>
-      <c r="CI5" t="s">
+      <c r="CN5" t="s">
+        <v>160</v>
+      </c>
+      <c r="CO5" t="s">
         <v>343</v>
       </c>
-      <c r="CJ5" t="s">
+      <c r="CP5" t="s">
+        <v>161</v>
+      </c>
+      <c r="CQ5" t="s">
         <v>344</v>
       </c>
-      <c r="CK5" t="s">
+      <c r="CR5" t="s">
         <v>345</v>
       </c>
-      <c r="CL5" t="s">
-        <v>160</v>
-      </c>
-      <c r="CM5" t="s">
+      <c r="CS5" t="s">
         <v>346</v>
       </c>
-      <c r="CN5" t="s">
-        <v>161</v>
-      </c>
-      <c r="CO5" t="s">
+      <c r="CT5" t="s">
         <v>347</v>
       </c>
-      <c r="CP5" t="s">
-        <v>162</v>
-      </c>
-      <c r="CQ5" t="s">
+      <c r="CU5" t="s">
         <v>348</v>
       </c>
-      <c r="CR5" t="s">
+      <c r="CV5" t="s">
         <v>349</v>
       </c>
-      <c r="CS5" t="s">
+      <c r="CW5" t="s">
         <v>350</v>
       </c>
-      <c r="CT5" t="s">
+      <c r="CX5" t="s">
         <v>351</v>
       </c>
-      <c r="CU5" t="s">
+      <c r="CY5" t="s">
         <v>352</v>
       </c>
-      <c r="CV5" t="s">
+      <c r="CZ5" t="s">
         <v>353</v>
       </c>
-      <c r="CW5" t="s">
+      <c r="DA5" t="s">
         <v>354</v>
       </c>
-      <c r="CX5" t="s">
+      <c r="DB5" t="s">
         <v>355</v>
       </c>
-      <c r="CY5" t="s">
+      <c r="DC5" t="s">
         <v>356</v>
       </c>
-      <c r="CZ5" t="s">
+      <c r="DD5" t="s">
         <v>357</v>
       </c>
-      <c r="DA5" t="s">
+      <c r="DE5" t="s">
         <v>358</v>
       </c>
-      <c r="DB5" t="s">
+      <c r="DF5" t="s">
         <v>359</v>
       </c>
-      <c r="DC5" t="s">
+      <c r="DG5" t="s">
         <v>360</v>
       </c>
-      <c r="DD5" t="s">
+      <c r="DH5" t="s">
         <v>361</v>
       </c>
-      <c r="DE5" t="s">
+      <c r="DI5" t="s">
         <v>362</v>
       </c>
-      <c r="DF5" t="s">
+      <c r="DJ5" t="s">
         <v>363</v>
       </c>
-      <c r="DG5" t="s">
+      <c r="DK5" t="s">
         <v>364</v>
       </c>
-      <c r="DH5" t="s">
+      <c r="DL5" t="s">
         <v>365</v>
       </c>
-      <c r="DI5" t="s">
+      <c r="DM5" t="s">
         <v>366</v>
       </c>
-      <c r="DJ5" t="s">
+      <c r="DN5" t="s">
         <v>367</v>
       </c>
-      <c r="DK5" t="s">
+      <c r="DO5" t="s">
         <v>368</v>
       </c>
-      <c r="DL5" t="s">
+      <c r="DP5" t="s">
         <v>369</v>
       </c>
-      <c r="DM5" t="s">
+      <c r="DQ5" t="s">
         <v>370</v>
       </c>
-      <c r="DN5" t="s">
+      <c r="DR5" t="s">
         <v>371</v>
       </c>
-      <c r="DO5" t="s">
+      <c r="DS5" t="s">
         <v>372</v>
       </c>
-      <c r="DP5" t="s">
+      <c r="DT5" t="s">
         <v>373</v>
       </c>
-      <c r="DQ5" t="s">
+      <c r="DU5" t="s">
         <v>374</v>
       </c>
-      <c r="DR5" t="s">
+      <c r="DV5" t="s">
         <v>375</v>
       </c>
-      <c r="DS5" t="s">
+      <c r="DW5" t="s">
         <v>376</v>
       </c>
-      <c r="DT5" t="s">
+      <c r="DX5" t="s">
         <v>377</v>
       </c>
-      <c r="DU5" t="s">
+      <c r="DY5" t="s">
         <v>378</v>
       </c>
-      <c r="DV5" t="s">
+      <c r="DZ5" t="s">
         <v>379</v>
       </c>
-      <c r="DW5" t="s">
+      <c r="EA5" t="s">
         <v>380</v>
       </c>
-      <c r="DX5" t="s">
+      <c r="EB5" t="s">
         <v>381</v>
       </c>
-      <c r="DY5" t="s">
+      <c r="EC5" t="s">
         <v>382</v>
       </c>
-      <c r="DZ5" t="s">
+      <c r="ED5" t="s">
         <v>383</v>
       </c>
-      <c r="EA5" t="s">
+      <c r="EE5" t="s">
         <v>384</v>
       </c>
-      <c r="EB5" t="s">
+      <c r="EF5" t="s">
         <v>385</v>
       </c>
-      <c r="EC5" t="s">
+      <c r="EG5" t="s">
         <v>386</v>
       </c>
-      <c r="ED5" t="s">
+      <c r="EH5" t="s">
         <v>387</v>
       </c>
-      <c r="EE5" t="s">
+      <c r="EI5" t="s">
         <v>388</v>
       </c>
-      <c r="EF5" t="s">
+      <c r="EJ5" t="s">
         <v>389</v>
       </c>
-      <c r="EG5" t="s">
+      <c r="EK5" t="s">
         <v>390</v>
       </c>
-      <c r="EH5" t="s">
+      <c r="EL5" t="s">
         <v>391</v>
       </c>
-      <c r="EI5" t="s">
+      <c r="EM5" t="s">
         <v>392</v>
       </c>
-      <c r="EJ5" t="s">
+      <c r="EN5" t="s">
         <v>393</v>
       </c>
-      <c r="EK5" t="s">
+      <c r="EO5" t="s">
         <v>394</v>
       </c>
-      <c r="EL5" t="s">
+      <c r="EP5" t="s">
         <v>395</v>
       </c>
-      <c r="EM5" t="s">
+      <c r="EQ5" t="s">
         <v>396</v>
       </c>
-      <c r="EN5" t="s">
+      <c r="ER5" t="s">
         <v>397</v>
       </c>
-      <c r="EO5" t="s">
+      <c r="ES5" t="s">
         <v>398</v>
       </c>
-      <c r="EP5" t="s">
+      <c r="ET5" t="s">
         <v>399</v>
       </c>
-      <c r="EQ5" t="s">
+      <c r="EU5" t="s">
         <v>400</v>
       </c>
-      <c r="ER5" t="s">
+      <c r="EV5" t="s">
         <v>401</v>
       </c>
-      <c r="ES5" t="s">
+      <c r="EW5" t="s">
         <v>402</v>
       </c>
-      <c r="ET5" t="s">
+      <c r="EX5" t="s">
         <v>403</v>
       </c>
-      <c r="EU5" t="s">
+      <c r="EY5" t="s">
         <v>404</v>
       </c>
-      <c r="EV5" t="s">
+      <c r="EZ5" t="s">
         <v>405</v>
       </c>
-      <c r="EW5" t="s">
+      <c r="FA5" t="s">
         <v>406</v>
       </c>
-      <c r="EX5" t="s">
+      <c r="FB5" t="s">
         <v>407</v>
       </c>
-      <c r="EY5" t="s">
+      <c r="FC5" t="s">
         <v>408</v>
       </c>
-      <c r="EZ5" t="s">
+      <c r="FD5" t="s">
         <v>409</v>
       </c>
-      <c r="FA5" t="s">
+      <c r="FE5" t="s">
         <v>410</v>
       </c>
-      <c r="FB5" t="s">
+      <c r="FF5" t="s">
         <v>411</v>
       </c>
-      <c r="FC5" t="s">
+      <c r="FG5" t="s">
         <v>412</v>
       </c>
-      <c r="FD5" t="s">
+      <c r="FH5" t="s">
         <v>413</v>
       </c>
-      <c r="FE5" t="s">
+      <c r="FI5" t="s">
         <v>414</v>
       </c>
-      <c r="FF5" t="s">
+      <c r="FJ5" t="s">
         <v>415</v>
       </c>
-      <c r="FG5" t="s">
+      <c r="FK5" t="s">
         <v>416</v>
       </c>
-      <c r="FH5" t="s">
+      <c r="FL5" t="s">
         <v>417</v>
       </c>
-      <c r="FI5" t="s">
+      <c r="FM5" t="s">
         <v>418</v>
       </c>
-      <c r="FJ5" t="s">
+      <c r="FN5" t="s">
         <v>419</v>
       </c>
-      <c r="FK5" t="s">
+      <c r="FO5" t="s">
         <v>420</v>
       </c>
-      <c r="FL5" t="s">
+      <c r="FP5" t="s">
         <v>421</v>
       </c>
-      <c r="FM5" t="s">
+      <c r="FQ5" t="s">
         <v>422</v>
       </c>
-      <c r="FN5" t="s">
+      <c r="FR5" t="s">
         <v>423</v>
       </c>
-      <c r="FO5" t="s">
+      <c r="FS5" t="s">
         <v>424</v>
       </c>
-      <c r="FP5" t="s">
+      <c r="FT5" t="s">
         <v>425</v>
       </c>
-      <c r="FQ5" t="s">
+      <c r="FU5" t="s">
         <v>426</v>
       </c>
-      <c r="FR5" t="s">
+      <c r="FV5" t="s">
         <v>427</v>
       </c>
-      <c r="FS5" t="s">
+      <c r="FW5" t="s">
         <v>428</v>
       </c>
-      <c r="FT5" t="s">
+      <c r="FX5" t="s">
         <v>429</v>
       </c>
-      <c r="FU5" t="s">
+      <c r="FY5" t="s">
         <v>430</v>
       </c>
-      <c r="FV5" t="s">
+      <c r="FZ5" t="s">
         <v>431</v>
       </c>
-      <c r="FW5" t="s">
+      <c r="GA5" t="s">
         <v>432</v>
       </c>
-      <c r="FX5" t="s">
+      <c r="GB5" t="s">
         <v>433</v>
       </c>
-      <c r="FY5" t="s">
+      <c r="GC5" t="s">
         <v>434</v>
       </c>
-      <c r="FZ5" t="s">
+      <c r="GD5" t="s">
         <v>435</v>
       </c>
-      <c r="GA5" t="s">
+      <c r="GE5" t="s">
         <v>436</v>
       </c>
-      <c r="GB5" t="s">
+      <c r="GF5" t="s">
         <v>437</v>
       </c>
-      <c r="GC5" t="s">
+      <c r="GG5" t="s">
         <v>438</v>
       </c>
-      <c r="GD5" t="s">
+      <c r="GH5" t="s">
         <v>439</v>
       </c>
-      <c r="GE5" t="s">
+      <c r="GI5" t="s">
         <v>440</v>
       </c>
-      <c r="GF5" t="s">
+      <c r="GJ5" t="s">
         <v>441</v>
       </c>
-      <c r="GG5" t="s">
+      <c r="GK5" t="s">
         <v>442</v>
       </c>
-      <c r="GH5" t="s">
+      <c r="GL5" t="s">
         <v>443</v>
       </c>
-      <c r="GI5" t="s">
+      <c r="GM5" t="s">
         <v>444</v>
       </c>
-      <c r="GJ5" t="s">
+      <c r="GN5" t="s">
         <v>445</v>
       </c>
-      <c r="GK5" t="s">
+      <c r="GO5" t="s">
         <v>446</v>
       </c>
-      <c r="GL5" t="s">
+      <c r="GP5" t="s">
         <v>447</v>
       </c>
-      <c r="GM5" t="s">
+      <c r="GQ5" t="s">
         <v>448</v>
       </c>
-      <c r="GN5" t="s">
+      <c r="GR5" t="s">
         <v>449</v>
       </c>
-      <c r="GO5" t="s">
+      <c r="GS5" t="s">
         <v>450</v>
       </c>
-      <c r="GP5" t="s">
+      <c r="GT5" t="s">
         <v>451</v>
       </c>
-      <c r="GQ5" t="s">
+      <c r="GU5" t="s">
         <v>452</v>
       </c>
-      <c r="GR5" t="s">
+      <c r="GV5" t="s">
         <v>453</v>
       </c>
-      <c r="GS5" t="s">
+      <c r="GW5" t="s">
         <v>454</v>
-      </c>
-      <c r="GT5" t="s">
-        <v>455</v>
-      </c>
-      <c r="GU5" t="s">
-        <v>456</v>
-      </c>
-      <c r="GV5" t="s">
-        <v>457</v>
-      </c>
-      <c r="GW5" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="6" spans="2:205" x14ac:dyDescent="0.2">
@@ -13416,13 +13404,13 @@
         <v>97418110</v>
       </c>
       <c r="C6" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D6" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E6" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F6">
         <v>8</v>
@@ -13431,7 +13419,7 @@
         <v>2023020100</v>
       </c>
       <c r="H6" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -13443,7 +13431,7 @@
         <v>9</v>
       </c>
       <c r="L6" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -13455,7 +13443,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -13473,7 +13461,7 @@
         <v>9</v>
       </c>
       <c r="V6" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="W6">
         <v>1</v>
@@ -13491,7 +13479,7 @@
         <v>9</v>
       </c>
       <c r="AL6" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="AM6">
         <v>1</v>
@@ -13503,19 +13491,19 @@
         <v>9</v>
       </c>
       <c r="AR6" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="AS6">
         <v>1</v>
       </c>
       <c r="AT6" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="AU6">
         <v>1</v>
       </c>
       <c r="AV6" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="AW6">
         <v>1</v>
@@ -13527,7 +13515,7 @@
         <v>9</v>
       </c>
       <c r="AZ6" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="BA6">
         <v>1</v>
@@ -13545,19 +13533,19 @@
         <v>9</v>
       </c>
       <c r="BH6" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="BI6">
         <v>9</v>
       </c>
       <c r="BJ6" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="BK6">
         <v>9</v>
       </c>
       <c r="BL6" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="BM6">
         <v>9</v>
@@ -13605,25 +13593,25 @@
         <v>9</v>
       </c>
       <c r="CJ6" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="CK6">
         <v>1</v>
       </c>
       <c r="CL6" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="CM6">
         <v>1</v>
       </c>
       <c r="CN6" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="CO6">
         <v>1</v>
       </c>
       <c r="CP6" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="CQ6">
         <v>1</v>
@@ -13688,13 +13676,13 @@
         <v>97418110</v>
       </c>
       <c r="C7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F7">
         <v>8</v>
@@ -13703,7 +13691,7 @@
         <v>2023020101</v>
       </c>
       <c r="H7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -13715,7 +13703,7 @@
         <v>9</v>
       </c>
       <c r="L7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -13727,7 +13715,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -13745,7 +13733,7 @@
         <v>9</v>
       </c>
       <c r="V7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -13763,7 +13751,7 @@
         <v>9</v>
       </c>
       <c r="AL7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="AM7">
         <v>1</v>
@@ -13775,19 +13763,19 @@
         <v>9</v>
       </c>
       <c r="AR7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="AS7">
         <v>1</v>
       </c>
       <c r="AT7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="AU7">
         <v>1</v>
       </c>
       <c r="AV7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="AW7">
         <v>1</v>
@@ -13799,7 +13787,7 @@
         <v>9</v>
       </c>
       <c r="AZ7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="BA7">
         <v>1</v>
@@ -13817,19 +13805,19 @@
         <v>9</v>
       </c>
       <c r="BH7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="BI7">
         <v>9</v>
       </c>
       <c r="BJ7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="BK7">
         <v>9</v>
       </c>
       <c r="BL7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="BM7">
         <v>9</v>
@@ -13877,25 +13865,25 @@
         <v>9</v>
       </c>
       <c r="CJ7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="CK7">
         <v>1</v>
       </c>
       <c r="CL7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="CM7">
         <v>1</v>
       </c>
       <c r="CN7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="CO7">
         <v>1</v>
       </c>
       <c r="CP7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="CQ7">
         <v>1</v>
@@ -13984,13 +13972,13 @@
         <v>97418110</v>
       </c>
       <c r="C8" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E8" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -13999,7 +13987,7 @@
         <v>2023020102</v>
       </c>
       <c r="H8" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -14011,7 +13999,7 @@
         <v>9</v>
       </c>
       <c r="L8" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -14023,7 +14011,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -14041,7 +14029,7 @@
         <v>9</v>
       </c>
       <c r="V8" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="W8">
         <v>1</v>
@@ -14059,7 +14047,7 @@
         <v>9</v>
       </c>
       <c r="AL8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="AM8">
         <v>1</v>
@@ -14071,19 +14059,19 @@
         <v>9</v>
       </c>
       <c r="AR8" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="AS8">
         <v>1</v>
       </c>
       <c r="AT8" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="AU8">
         <v>1</v>
       </c>
       <c r="AV8" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="AW8">
         <v>1</v>
@@ -14095,7 +14083,7 @@
         <v>9</v>
       </c>
       <c r="AZ8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="BA8">
         <v>1</v>
@@ -14113,19 +14101,19 @@
         <v>9</v>
       </c>
       <c r="BH8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="BI8">
         <v>9</v>
       </c>
       <c r="BJ8" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="BK8">
         <v>9</v>
       </c>
       <c r="BL8" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="BM8">
         <v>9</v>
@@ -14173,25 +14161,25 @@
         <v>9</v>
       </c>
       <c r="CJ8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="CK8">
         <v>1</v>
       </c>
       <c r="CL8" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="CM8">
         <v>1</v>
       </c>
       <c r="CN8" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="CO8">
         <v>1</v>
       </c>
       <c r="CP8" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="CQ8">
         <v>1</v>
@@ -14262,13 +14250,13 @@
         <v>97418110</v>
       </c>
       <c r="C9" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D9" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E9" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -14277,7 +14265,7 @@
         <v>2023020103</v>
       </c>
       <c r="H9" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -14289,7 +14277,7 @@
         <v>9</v>
       </c>
       <c r="L9" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -14301,7 +14289,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -14319,7 +14307,7 @@
         <v>9</v>
       </c>
       <c r="V9" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="W9">
         <v>1</v>
@@ -14337,7 +14325,7 @@
         <v>9</v>
       </c>
       <c r="AL9" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="AM9">
         <v>1</v>
@@ -14349,19 +14337,19 @@
         <v>9</v>
       </c>
       <c r="AR9" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="AS9">
         <v>1</v>
       </c>
       <c r="AT9" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AU9">
         <v>1</v>
       </c>
       <c r="AV9" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="AW9">
         <v>1</v>
@@ -14373,7 +14361,7 @@
         <v>9</v>
       </c>
       <c r="AZ9" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="BA9">
         <v>1</v>
@@ -14391,19 +14379,19 @@
         <v>9</v>
       </c>
       <c r="BH9" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="BI9">
         <v>9</v>
       </c>
       <c r="BJ9" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="BK9">
         <v>9</v>
       </c>
       <c r="BL9" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="BM9">
         <v>9</v>
@@ -14451,25 +14439,25 @@
         <v>9</v>
       </c>
       <c r="CJ9" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="CK9">
         <v>1</v>
       </c>
       <c r="CL9" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="CM9">
         <v>1</v>
       </c>
       <c r="CN9" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="CO9">
         <v>1</v>
       </c>
       <c r="CP9" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="CQ9">
         <v>1</v>
@@ -14558,13 +14546,13 @@
         <v>97418110</v>
       </c>
       <c r="C10" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D10" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E10" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F10">
         <v>8</v>
@@ -14573,7 +14561,7 @@
         <v>2023020104</v>
       </c>
       <c r="H10" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -14585,7 +14573,7 @@
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -14597,7 +14585,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -14615,7 +14603,7 @@
         <v>9</v>
       </c>
       <c r="V10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="W10">
         <v>1</v>
@@ -14633,7 +14621,7 @@
         <v>9</v>
       </c>
       <c r="AL10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="AM10">
         <v>1</v>
@@ -14645,19 +14633,19 @@
         <v>9</v>
       </c>
       <c r="AR10" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="AS10">
         <v>1</v>
       </c>
       <c r="AT10" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="AU10">
         <v>1</v>
       </c>
       <c r="AV10" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="AW10">
         <v>1</v>
@@ -14669,7 +14657,7 @@
         <v>9</v>
       </c>
       <c r="AZ10" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="BA10">
         <v>1</v>
@@ -14687,19 +14675,19 @@
         <v>9</v>
       </c>
       <c r="BH10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="BI10">
         <v>9</v>
       </c>
       <c r="BJ10" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="BK10">
         <v>9</v>
       </c>
       <c r="BL10" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="BM10">
         <v>9</v>
@@ -14747,25 +14735,25 @@
         <v>9</v>
       </c>
       <c r="CJ10" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="CK10">
         <v>1</v>
       </c>
       <c r="CL10" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="CM10">
         <v>1</v>
       </c>
       <c r="CN10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="CO10">
         <v>1</v>
       </c>
       <c r="CP10" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="CQ10">
         <v>1</v>

--- a/doc/bd schema/mesures.xlsx
+++ b/doc/bd schema/mesures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/projects/climato/doc/bd schema/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FAA1AE-B957-7145-A4E8-B2FD9A426673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856C66BB-8312-6445-B345-089C3EEBE127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="21600" xr2:uid="{E8C9D03E-FE34-074B-BD29-DFEA4CD8E37C}"/>
+    <workbookView xWindow="15440" yWindow="500" windowWidth="35760" windowHeight="19400" xr2:uid="{E8C9D03E-FE34-074B-BD29-DFEA4CD8E37C}"/>
   </bookViews>
   <sheets>
     <sheet name="All Mesures" sheetId="1" r:id="rId1"/>
@@ -140,6 +140,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{C831C55C-7CA5-2447-BC6B-D65F89D3E5D3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">voir comment agreger l'etp...
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J14" authorId="1" shapeId="0" xr:uid="{9C54D2FF-5C32-CB4B-B3D6-29FCDBBF7E03}">
       <text>
         <r>
@@ -258,6 +272,20 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">grele ???
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B45" authorId="0" shapeId="0" xr:uid="{5EBF554E-DADB-5B4E-9D82-D9881CCF7F4B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">agreger les max
 </t>
         </r>
       </text>
@@ -830,7 +858,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="814">
   <si>
     <t>barometer</t>
   </si>
@@ -3486,7 +3514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3548,12 +3576,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3583,6 +3605,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3904,8 +3935,8 @@
   <dimension ref="B1:O426"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G113" sqref="G113"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4047,12 +4078,10 @@
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>807</v>
-      </c>
+      <c r="C5" s="37"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
@@ -4067,12 +4096,10 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>807</v>
-      </c>
+      <c r="C6" s="37"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
@@ -4274,10 +4301,10 @@
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="4" t="s">
         <v>795</v>
       </c>
       <c r="D14" s="4"/>
@@ -4288,7 +4315,7 @@
       <c r="G14" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="H14" s="26"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="20" t="s">
         <v>804</v>
@@ -4300,7 +4327,7 @@
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="25" t="s">
         <v>173</v>
       </c>
       <c r="C15" s="22"/>
@@ -4318,7 +4345,7 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="25" t="s">
         <v>173</v>
       </c>
       <c r="C16" s="22"/>
@@ -4336,7 +4363,7 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="25" t="s">
         <v>173</v>
       </c>
       <c r="C17" s="22"/>
@@ -4354,7 +4381,7 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="25" t="s">
         <v>173</v>
       </c>
       <c r="C18" s="22"/>
@@ -4745,7 +4772,7 @@
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="2:15" ht="26" x14ac:dyDescent="0.3">
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="26" t="s">
         <v>179</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -4772,7 +4799,7 @@
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="2:15" ht="26" x14ac:dyDescent="0.3">
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -4795,7 +4822,7 @@
       <c r="O34" s="4"/>
     </row>
     <row r="35" spans="2:15" ht="26" x14ac:dyDescent="0.3">
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -4818,7 +4845,7 @@
       <c r="O35" s="4"/>
     </row>
     <row r="36" spans="2:15" ht="26" x14ac:dyDescent="0.3">
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -4841,7 +4868,7 @@
       <c r="O36" s="4"/>
     </row>
     <row r="37" spans="2:15" ht="26" x14ac:dyDescent="0.3">
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -4864,7 +4891,7 @@
       <c r="O37" s="4"/>
     </row>
     <row r="38" spans="2:15" ht="26" x14ac:dyDescent="0.3">
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="26" t="s">
         <v>184</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -4891,7 +4918,7 @@
       <c r="O38" s="4"/>
     </row>
     <row r="39" spans="2:15" ht="26" x14ac:dyDescent="0.3">
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -4914,7 +4941,7 @@
       <c r="O39" s="4"/>
     </row>
     <row r="40" spans="2:15" ht="26" x14ac:dyDescent="0.3">
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -4937,7 +4964,7 @@
       <c r="O40" s="4"/>
     </row>
     <row r="41" spans="2:15" ht="26" x14ac:dyDescent="0.3">
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="26" t="s">
         <v>191</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -4964,7 +4991,7 @@
       <c r="O41" s="4"/>
     </row>
     <row r="42" spans="2:15" ht="26" x14ac:dyDescent="0.3">
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -4985,7 +5012,7 @@
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="2:15" ht="26" x14ac:dyDescent="0.3">
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -5006,7 +5033,7 @@
       <c r="O43" s="4"/>
     </row>
     <row r="44" spans="2:15" ht="26" x14ac:dyDescent="0.3">
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="28" t="s">
         <v>256</v>
       </c>
       <c r="C44" s="22" t="s">
@@ -5710,7 +5737,7 @@
       <c r="O69" s="4"/>
     </row>
     <row r="70" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -5725,7 +5752,7 @@
       <c r="F70" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G70" s="31" t="s">
+      <c r="G70" s="29" t="s">
         <v>64</v>
       </c>
       <c r="H70" s="19" t="s">
@@ -5826,7 +5853,7 @@
       <c r="O73" s="4"/>
     </row>
     <row r="74" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B74" s="29" t="s">
+      <c r="B74" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C74" s="21"/>
@@ -5844,7 +5871,7 @@
       <c r="O74" s="4"/>
     </row>
     <row r="75" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C75" s="21"/>
@@ -5910,7 +5937,7 @@
       <c r="O77" s="4"/>
     </row>
     <row r="78" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B78" s="29" t="s">
+      <c r="B78" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C78" s="21" t="s">
@@ -5934,7 +5961,7 @@
       <c r="O78" s="4"/>
     </row>
     <row r="79" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B79" s="29" t="s">
+      <c r="B79" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C79" s="21" t="s">
@@ -6008,7 +6035,7 @@
       <c r="O81" s="4"/>
     </row>
     <row r="82" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B82" s="29" t="s">
+      <c r="B82" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C82" s="21" t="s">
@@ -6032,7 +6059,7 @@
       <c r="O82" s="4"/>
     </row>
     <row r="83" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C83" s="21" t="s">
@@ -6056,7 +6083,7 @@
       <c r="O83" s="4"/>
     </row>
     <row r="84" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B84" s="29" t="s">
+      <c r="B84" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C84" s="21" t="s">
@@ -6080,7 +6107,7 @@
       <c r="O84" s="4"/>
     </row>
     <row r="85" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B85" s="29" t="s">
+      <c r="B85" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C85" s="21" t="s">
@@ -6107,7 +6134,7 @@
       <c r="B86" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C86" s="33" t="s">
+      <c r="C86" s="31" t="s">
         <v>797</v>
       </c>
       <c r="D86" s="4" t="s">
@@ -6135,7 +6162,7 @@
       <c r="B87" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C87" s="33" t="s">
+      <c r="C87" s="31" t="s">
         <v>797</v>
       </c>
       <c r="D87" s="4" t="s">
@@ -6163,7 +6190,7 @@
       <c r="B88" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C88" s="33" t="s">
+      <c r="C88" s="31" t="s">
         <v>797</v>
       </c>
       <c r="D88" s="4" t="s">
@@ -6191,7 +6218,7 @@
       <c r="B89" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C89" s="33" t="s">
+      <c r="C89" s="31" t="s">
         <v>797</v>
       </c>
       <c r="D89" s="4" t="s">
@@ -6228,7 +6255,7 @@
       <c r="E90" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F90" s="34" t="s">
+      <c r="F90" s="32" t="s">
         <v>125</v>
       </c>
       <c r="G90" s="5" t="s">
@@ -6445,7 +6472,7 @@
       <c r="B98" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C98" s="35" t="s">
+      <c r="C98" s="33" t="s">
         <v>798</v>
       </c>
       <c r="D98" s="4" t="s">
@@ -6471,7 +6498,7 @@
       <c r="O98" s="4"/>
     </row>
     <row r="99" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B99" s="29" t="s">
+      <c r="B99" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C99" s="21" t="s">
@@ -6499,7 +6526,7 @@
       <c r="O99" s="4"/>
     </row>
     <row r="100" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B100" s="29" t="s">
+      <c r="B100" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C100" s="21" t="s">
@@ -6544,7 +6571,7 @@
       <c r="B102" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C102" s="35" t="s">
+      <c r="C102" s="33" t="s">
         <v>790</v>
       </c>
       <c r="D102" s="4" t="s">
@@ -6569,7 +6596,7 @@
       <c r="O102" s="4"/>
     </row>
     <row r="103" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B103" s="29" t="s">
+      <c r="B103" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C103" s="21" t="s">
@@ -6593,7 +6620,7 @@
       <c r="O103" s="4"/>
     </row>
     <row r="104" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B104" s="29" t="s">
+      <c r="B104" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C104" s="21" t="s">
@@ -6617,7 +6644,7 @@
       <c r="O104" s="4"/>
     </row>
     <row r="105" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B105" s="36" t="s">
+      <c r="B105" s="34" t="s">
         <v>117</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -6745,7 +6772,7 @@
       <c r="O108" s="4"/>
     </row>
     <row r="109" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="34" t="s">
         <v>95</v>
       </c>
       <c r="C109" s="4" t="s">
@@ -6775,7 +6802,7 @@
       <c r="O109" s="4"/>
     </row>
     <row r="110" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="34" t="s">
         <v>161</v>
       </c>
       <c r="C110" s="4" t="s">
@@ -6807,7 +6834,7 @@
       <c r="O110" s="4"/>
     </row>
     <row r="111" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="35" t="s">
         <v>173</v>
       </c>
       <c r="C111" s="4" t="s">
@@ -6835,7 +6862,7 @@
       <c r="O111" s="4"/>
     </row>
     <row r="112" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="35" t="s">
         <v>173</v>
       </c>
       <c r="C112" s="4" t="s">
@@ -6863,7 +6890,7 @@
       <c r="O112" s="4"/>
     </row>
     <row r="113" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="35" t="s">
         <v>173</v>
       </c>
       <c r="C113" s="4" t="s">
@@ -6891,7 +6918,7 @@
       <c r="O113" s="4"/>
     </row>
     <row r="114" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="34" t="s">
         <v>159</v>
       </c>
       <c r="C114" s="4" t="s">
@@ -6923,7 +6950,7 @@
       <c r="O114" s="4"/>
     </row>
     <row r="115" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="35" t="s">
         <v>173</v>
       </c>
       <c r="C115" s="4" t="s">
@@ -6955,7 +6982,7 @@
       <c r="O115" s="4"/>
     </row>
     <row r="116" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="35" t="s">
         <v>173</v>
       </c>
       <c r="C116" s="4" t="s">
@@ -6985,7 +7012,7 @@
       <c r="O116" s="4"/>
     </row>
     <row r="117" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="35" t="s">
         <v>173</v>
       </c>
       <c r="C117" s="4" t="s">
@@ -7013,7 +7040,7 @@
       <c r="O117" s="4"/>
     </row>
     <row r="118" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="36" t="s">
         <v>251</v>
       </c>
       <c r="C118" s="22" t="s">
